--- a/ML/CO2 emission.xlsx
+++ b/ML/CO2 emission.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML &amp; Data Visualization\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="CO2 emission" sheetId="1" r:id="rId1"/>
@@ -2280,8 +2275,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2808,14 +2803,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2862,7 +2849,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2894,10 +2881,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2929,7 +2915,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3105,16 +3090,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M1068"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3155,7 +3138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -3196,7 +3179,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -3237,7 +3220,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -3278,7 +3261,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>2014</v>
       </c>
@@ -3319,7 +3302,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -3360,7 +3343,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>2014</v>
       </c>
@@ -3401,7 +3384,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -3442,7 +3425,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -3483,7 +3466,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -3524,7 +3507,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -3565,7 +3548,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>2014</v>
       </c>
@@ -3606,7 +3589,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>2014</v>
       </c>
@@ -3647,7 +3630,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -3688,7 +3671,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -3729,7 +3712,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -3770,7 +3753,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>2014</v>
       </c>
@@ -3811,7 +3794,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>2014</v>
       </c>
@@ -3852,7 +3835,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>2014</v>
       </c>
@@ -3893,7 +3876,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>2014</v>
       </c>
@@ -3934,7 +3917,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>2014</v>
       </c>
@@ -3975,7 +3958,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>2014</v>
       </c>
@@ -4016,7 +3999,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>2014</v>
       </c>
@@ -4057,7 +4040,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>2014</v>
       </c>
@@ -4098,7 +4081,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>2014</v>
       </c>
@@ -4139,7 +4122,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>2014</v>
       </c>
@@ -4180,7 +4163,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>2014</v>
       </c>
@@ -4221,7 +4204,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>2014</v>
       </c>
@@ -4262,7 +4245,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>2014</v>
       </c>
@@ -4303,7 +4286,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>2014</v>
       </c>
@@ -4344,7 +4327,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>2014</v>
       </c>
@@ -4385,7 +4368,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>2014</v>
       </c>
@@ -4426,7 +4409,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>2014</v>
       </c>
@@ -4467,7 +4450,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>2014</v>
       </c>
@@ -4508,7 +4491,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>2014</v>
       </c>
@@ -4549,7 +4532,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>2014</v>
       </c>
@@ -4590,7 +4573,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>2014</v>
       </c>
@@ -4631,7 +4614,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>2014</v>
       </c>
@@ -4672,7 +4655,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>2014</v>
       </c>
@@ -4713,7 +4696,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>2014</v>
       </c>
@@ -4754,7 +4737,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>2014</v>
       </c>
@@ -4795,7 +4778,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>2014</v>
       </c>
@@ -4836,7 +4819,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>2014</v>
       </c>
@@ -4877,7 +4860,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>2014</v>
       </c>
@@ -4918,7 +4901,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>2014</v>
       </c>
@@ -4959,7 +4942,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>2014</v>
       </c>
@@ -5000,7 +4983,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>2014</v>
       </c>
@@ -5041,7 +5024,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>2014</v>
       </c>
@@ -5082,7 +5065,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>2014</v>
       </c>
@@ -5123,7 +5106,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>2014</v>
       </c>
@@ -5164,7 +5147,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>2014</v>
       </c>
@@ -5205,7 +5188,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>2014</v>
       </c>
@@ -5246,7 +5229,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>2014</v>
       </c>
@@ -5287,7 +5270,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>2014</v>
       </c>
@@ -5328,7 +5311,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>2014</v>
       </c>
@@ -5369,7 +5352,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>2014</v>
       </c>
@@ -5410,7 +5393,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>2014</v>
       </c>
@@ -5451,7 +5434,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>2014</v>
       </c>
@@ -5492,7 +5475,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>2014</v>
       </c>
@@ -5533,7 +5516,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>2014</v>
       </c>
@@ -5574,7 +5557,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>2014</v>
       </c>
@@ -5615,7 +5598,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>2014</v>
       </c>
@@ -5656,7 +5639,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>2014</v>
       </c>
@@ -5697,7 +5680,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>2014</v>
       </c>
@@ -5738,7 +5721,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>2014</v>
       </c>
@@ -5779,7 +5762,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>2014</v>
       </c>
@@ -5820,7 +5803,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13">
       <c r="A67">
         <v>2014</v>
       </c>
@@ -5861,7 +5844,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13">
       <c r="A68">
         <v>2014</v>
       </c>
@@ -5902,7 +5885,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>2014</v>
       </c>
@@ -5943,7 +5926,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13">
       <c r="A70">
         <v>2014</v>
       </c>
@@ -5984,7 +5967,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13">
       <c r="A71">
         <v>2014</v>
       </c>
@@ -6025,7 +6008,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13">
       <c r="A72">
         <v>2014</v>
       </c>
@@ -6066,7 +6049,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13">
       <c r="A73">
         <v>2014</v>
       </c>
@@ -6107,7 +6090,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13">
       <c r="A74">
         <v>2014</v>
       </c>
@@ -6148,7 +6131,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>2014</v>
       </c>
@@ -6189,7 +6172,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13">
       <c r="A76">
         <v>2014</v>
       </c>
@@ -6230,7 +6213,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13">
       <c r="A77">
         <v>2014</v>
       </c>
@@ -6271,7 +6254,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13">
       <c r="A78">
         <v>2014</v>
       </c>
@@ -6312,7 +6295,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13">
       <c r="A79">
         <v>2014</v>
       </c>
@@ -6353,7 +6336,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13">
       <c r="A80">
         <v>2014</v>
       </c>
@@ -6394,7 +6377,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13">
       <c r="A81">
         <v>2014</v>
       </c>
@@ -6435,7 +6418,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13">
       <c r="A82">
         <v>2014</v>
       </c>
@@ -6476,7 +6459,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13">
       <c r="A83">
         <v>2014</v>
       </c>
@@ -6517,7 +6500,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13">
       <c r="A84">
         <v>2014</v>
       </c>
@@ -6558,7 +6541,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13">
       <c r="A85">
         <v>2014</v>
       </c>
@@ -6599,7 +6582,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13">
       <c r="A86">
         <v>2014</v>
       </c>
@@ -6640,7 +6623,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13">
       <c r="A87">
         <v>2014</v>
       </c>
@@ -6681,7 +6664,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13">
       <c r="A88">
         <v>2014</v>
       </c>
@@ -6722,7 +6705,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13">
       <c r="A89">
         <v>2014</v>
       </c>
@@ -6763,7 +6746,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13">
       <c r="A90">
         <v>2014</v>
       </c>
@@ -6804,7 +6787,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13">
       <c r="A91">
         <v>2014</v>
       </c>
@@ -6845,7 +6828,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13">
       <c r="A92">
         <v>2014</v>
       </c>
@@ -6886,7 +6869,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13">
       <c r="A93">
         <v>2014</v>
       </c>
@@ -6927,7 +6910,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13">
       <c r="A94">
         <v>2014</v>
       </c>
@@ -6968,7 +6951,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13">
       <c r="A95">
         <v>2014</v>
       </c>
@@ -7009,7 +6992,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13">
       <c r="A96">
         <v>2014</v>
       </c>
@@ -7050,7 +7033,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13">
       <c r="A97">
         <v>2014</v>
       </c>
@@ -7091,7 +7074,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13">
       <c r="A98">
         <v>2014</v>
       </c>
@@ -7132,7 +7115,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13">
       <c r="A99">
         <v>2014</v>
       </c>
@@ -7173,7 +7156,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13">
       <c r="A100">
         <v>2014</v>
       </c>
@@ -7214,7 +7197,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13">
       <c r="A101">
         <v>2014</v>
       </c>
@@ -7255,7 +7238,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13">
       <c r="A102">
         <v>2014</v>
       </c>
@@ -7296,7 +7279,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13">
       <c r="A103">
         <v>2014</v>
       </c>
@@ -7337,7 +7320,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13">
       <c r="A104">
         <v>2014</v>
       </c>
@@ -7378,7 +7361,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13">
       <c r="A105">
         <v>2014</v>
       </c>
@@ -7419,7 +7402,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13">
       <c r="A106">
         <v>2014</v>
       </c>
@@ -7460,7 +7443,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13">
       <c r="A107">
         <v>2014</v>
       </c>
@@ -7501,7 +7484,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13">
       <c r="A108">
         <v>2014</v>
       </c>
@@ -7542,7 +7525,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13">
       <c r="A109">
         <v>2014</v>
       </c>
@@ -7583,7 +7566,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13">
       <c r="A110">
         <v>2014</v>
       </c>
@@ -7624,7 +7607,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13">
       <c r="A111">
         <v>2014</v>
       </c>
@@ -7665,7 +7648,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13">
       <c r="A112">
         <v>2014</v>
       </c>
@@ -7706,7 +7689,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13">
       <c r="A113">
         <v>2014</v>
       </c>
@@ -7747,7 +7730,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13">
       <c r="A114">
         <v>2014</v>
       </c>
@@ -7788,7 +7771,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13">
       <c r="A115">
         <v>2014</v>
       </c>
@@ -7829,7 +7812,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13">
       <c r="A116">
         <v>2014</v>
       </c>
@@ -7870,7 +7853,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13">
       <c r="A117">
         <v>2014</v>
       </c>
@@ -7911,7 +7894,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13">
       <c r="A118">
         <v>2014</v>
       </c>
@@ -7952,7 +7935,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13">
       <c r="A119">
         <v>2014</v>
       </c>
@@ -7993,7 +7976,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13">
       <c r="A120">
         <v>2014</v>
       </c>
@@ -8034,7 +8017,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13">
       <c r="A121">
         <v>2014</v>
       </c>
@@ -8075,7 +8058,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13">
       <c r="A122">
         <v>2014</v>
       </c>
@@ -8116,7 +8099,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13">
       <c r="A123">
         <v>2014</v>
       </c>
@@ -8157,7 +8140,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13">
       <c r="A124">
         <v>2014</v>
       </c>
@@ -8198,7 +8181,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13">
       <c r="A125">
         <v>2014</v>
       </c>
@@ -8239,7 +8222,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13">
       <c r="A126">
         <v>2014</v>
       </c>
@@ -8280,7 +8263,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13">
       <c r="A127">
         <v>2014</v>
       </c>
@@ -8321,7 +8304,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13">
       <c r="A128">
         <v>2014</v>
       </c>
@@ -8362,7 +8345,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13">
       <c r="A129">
         <v>2014</v>
       </c>
@@ -8403,7 +8386,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13">
       <c r="A130">
         <v>2014</v>
       </c>
@@ -8444,7 +8427,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13">
       <c r="A131">
         <v>2014</v>
       </c>
@@ -8485,7 +8468,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13">
       <c r="A132">
         <v>2014</v>
       </c>
@@ -8526,7 +8509,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13">
       <c r="A133">
         <v>2014</v>
       </c>
@@ -8567,7 +8550,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13">
       <c r="A134">
         <v>2014</v>
       </c>
@@ -8608,7 +8591,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13">
       <c r="A135">
         <v>2014</v>
       </c>
@@ -8649,7 +8632,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13">
       <c r="A136">
         <v>2014</v>
       </c>
@@ -8690,7 +8673,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13">
       <c r="A137">
         <v>2014</v>
       </c>
@@ -8731,7 +8714,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13">
       <c r="A138">
         <v>2014</v>
       </c>
@@ -8772,7 +8755,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13">
       <c r="A139">
         <v>2014</v>
       </c>
@@ -8813,7 +8796,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13">
       <c r="A140">
         <v>2014</v>
       </c>
@@ -8854,7 +8837,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13">
       <c r="A141">
         <v>2014</v>
       </c>
@@ -8895,7 +8878,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13">
       <c r="A142">
         <v>2014</v>
       </c>
@@ -8936,7 +8919,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13">
       <c r="A143">
         <v>2014</v>
       </c>
@@ -8977,7 +8960,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13">
       <c r="A144">
         <v>2014</v>
       </c>
@@ -9018,7 +9001,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13">
       <c r="A145">
         <v>2014</v>
       </c>
@@ -9059,7 +9042,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13">
       <c r="A146">
         <v>2014</v>
       </c>
@@ -9100,7 +9083,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13">
       <c r="A147">
         <v>2014</v>
       </c>
@@ -9141,7 +9124,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13">
       <c r="A148">
         <v>2014</v>
       </c>
@@ -9182,7 +9165,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13">
       <c r="A149">
         <v>2014</v>
       </c>
@@ -9223,7 +9206,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13">
       <c r="A150">
         <v>2014</v>
       </c>
@@ -9264,7 +9247,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13">
       <c r="A151">
         <v>2014</v>
       </c>
@@ -9305,7 +9288,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13">
       <c r="A152">
         <v>2014</v>
       </c>
@@ -9346,7 +9329,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13">
       <c r="A153">
         <v>2014</v>
       </c>
@@ -9387,7 +9370,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13">
       <c r="A154">
         <v>2014</v>
       </c>
@@ -9428,7 +9411,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13">
       <c r="A155">
         <v>2014</v>
       </c>
@@ -9469,7 +9452,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13">
       <c r="A156">
         <v>2014</v>
       </c>
@@ -9510,7 +9493,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13">
       <c r="A157">
         <v>2014</v>
       </c>
@@ -9551,7 +9534,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13">
       <c r="A158">
         <v>2014</v>
       </c>
@@ -9592,7 +9575,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13">
       <c r="A159">
         <v>2014</v>
       </c>
@@ -9633,7 +9616,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13">
       <c r="A160">
         <v>2014</v>
       </c>
@@ -9674,7 +9657,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13">
       <c r="A161">
         <v>2014</v>
       </c>
@@ -9715,7 +9698,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13">
       <c r="A162">
         <v>2014</v>
       </c>
@@ -9756,7 +9739,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13">
       <c r="A163">
         <v>2014</v>
       </c>
@@ -9797,7 +9780,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13">
       <c r="A164">
         <v>2014</v>
       </c>
@@ -9838,7 +9821,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13">
       <c r="A165">
         <v>2014</v>
       </c>
@@ -9879,7 +9862,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13">
       <c r="A166">
         <v>2014</v>
       </c>
@@ -9920,7 +9903,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13">
       <c r="A167">
         <v>2014</v>
       </c>
@@ -9961,7 +9944,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13">
       <c r="A168">
         <v>2014</v>
       </c>
@@ -10002,7 +9985,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13">
       <c r="A169">
         <v>2014</v>
       </c>
@@ -10043,7 +10026,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13">
       <c r="A170">
         <v>2014</v>
       </c>
@@ -10084,7 +10067,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13">
       <c r="A171">
         <v>2014</v>
       </c>
@@ -10125,7 +10108,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13">
       <c r="A172">
         <v>2014</v>
       </c>
@@ -10166,7 +10149,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13">
       <c r="A173">
         <v>2014</v>
       </c>
@@ -10207,7 +10190,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13">
       <c r="A174">
         <v>2014</v>
       </c>
@@ -10248,7 +10231,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13">
       <c r="A175">
         <v>2014</v>
       </c>
@@ -10289,7 +10272,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13">
       <c r="A176">
         <v>2014</v>
       </c>
@@ -10330,7 +10313,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13">
       <c r="A177">
         <v>2014</v>
       </c>
@@ -10371,7 +10354,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13">
       <c r="A178">
         <v>2014</v>
       </c>
@@ -10412,7 +10395,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13">
       <c r="A179">
         <v>2014</v>
       </c>
@@ -10453,7 +10436,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13">
       <c r="A180">
         <v>2014</v>
       </c>
@@ -10494,7 +10477,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13">
       <c r="A181">
         <v>2014</v>
       </c>
@@ -10535,7 +10518,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13">
       <c r="A182">
         <v>2014</v>
       </c>
@@ -10576,7 +10559,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13">
       <c r="A183">
         <v>2014</v>
       </c>
@@ -10617,7 +10600,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13">
       <c r="A184">
         <v>2014</v>
       </c>
@@ -10658,7 +10641,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13">
       <c r="A185">
         <v>2014</v>
       </c>
@@ -10699,7 +10682,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13">
       <c r="A186">
         <v>2014</v>
       </c>
@@ -10740,7 +10723,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13">
       <c r="A187">
         <v>2014</v>
       </c>
@@ -10781,7 +10764,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13">
       <c r="A188">
         <v>2014</v>
       </c>
@@ -10822,7 +10805,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13">
       <c r="A189">
         <v>2014</v>
       </c>
@@ -10863,7 +10846,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13">
       <c r="A190">
         <v>2014</v>
       </c>
@@ -10904,7 +10887,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13">
       <c r="A191">
         <v>2014</v>
       </c>
@@ -10945,7 +10928,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13">
       <c r="A192">
         <v>2014</v>
       </c>
@@ -10986,7 +10969,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13">
       <c r="A193">
         <v>2014</v>
       </c>
@@ -11027,7 +11010,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13">
       <c r="A194">
         <v>2014</v>
       </c>
@@ -11068,7 +11051,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13">
       <c r="A195">
         <v>2014</v>
       </c>
@@ -11109,7 +11092,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13">
       <c r="A196">
         <v>2014</v>
       </c>
@@ -11150,7 +11133,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13">
       <c r="A197">
         <v>2014</v>
       </c>
@@ -11191,7 +11174,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13">
       <c r="A198">
         <v>2014</v>
       </c>
@@ -11232,7 +11215,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13">
       <c r="A199">
         <v>2014</v>
       </c>
@@ -11273,7 +11256,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13">
       <c r="A200">
         <v>2014</v>
       </c>
@@ -11314,7 +11297,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13">
       <c r="A201">
         <v>2014</v>
       </c>
@@ -11355,7 +11338,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13">
       <c r="A202">
         <v>2014</v>
       </c>
@@ -11396,7 +11379,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13">
       <c r="A203">
         <v>2014</v>
       </c>
@@ -11437,7 +11420,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13">
       <c r="A204">
         <v>2014</v>
       </c>
@@ -11478,7 +11461,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13">
       <c r="A205">
         <v>2014</v>
       </c>
@@ -11519,7 +11502,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13">
       <c r="A206">
         <v>2014</v>
       </c>
@@ -11560,7 +11543,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13">
       <c r="A207">
         <v>2014</v>
       </c>
@@ -11601,7 +11584,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13">
       <c r="A208">
         <v>2014</v>
       </c>
@@ -11642,7 +11625,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13">
       <c r="A209">
         <v>2014</v>
       </c>
@@ -11683,7 +11666,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13">
       <c r="A210">
         <v>2014</v>
       </c>
@@ -11724,7 +11707,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13">
       <c r="A211">
         <v>2014</v>
       </c>
@@ -11765,7 +11748,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13">
       <c r="A212">
         <v>2014</v>
       </c>
@@ -11806,7 +11789,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13">
       <c r="A213">
         <v>2014</v>
       </c>
@@ -11847,7 +11830,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13">
       <c r="A214">
         <v>2014</v>
       </c>
@@ -11888,7 +11871,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13">
       <c r="A215">
         <v>2014</v>
       </c>
@@ -11929,7 +11912,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13">
       <c r="A216">
         <v>2014</v>
       </c>
@@ -11970,7 +11953,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13">
       <c r="A217">
         <v>2014</v>
       </c>
@@ -12011,7 +11994,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13">
       <c r="A218">
         <v>2014</v>
       </c>
@@ -12052,7 +12035,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13">
       <c r="A219">
         <v>2014</v>
       </c>
@@ -12093,7 +12076,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13">
       <c r="A220">
         <v>2014</v>
       </c>
@@ -12134,7 +12117,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13">
       <c r="A221">
         <v>2014</v>
       </c>
@@ -12175,7 +12158,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13">
       <c r="A222">
         <v>2014</v>
       </c>
@@ -12216,7 +12199,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13">
       <c r="A223">
         <v>2014</v>
       </c>
@@ -12257,7 +12240,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13">
       <c r="A224">
         <v>2014</v>
       </c>
@@ -12298,7 +12281,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13">
       <c r="A225">
         <v>2014</v>
       </c>
@@ -12339,7 +12322,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13">
       <c r="A226">
         <v>2014</v>
       </c>
@@ -12380,7 +12363,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13">
       <c r="A227">
         <v>2014</v>
       </c>
@@ -12421,7 +12404,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13">
       <c r="A228">
         <v>2014</v>
       </c>
@@ -12462,7 +12445,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13">
       <c r="A229">
         <v>2014</v>
       </c>
@@ -12503,7 +12486,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13">
       <c r="A230">
         <v>2014</v>
       </c>
@@ -12544,7 +12527,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13">
       <c r="A231">
         <v>2014</v>
       </c>
@@ -12585,7 +12568,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13">
       <c r="A232">
         <v>2014</v>
       </c>
@@ -12626,7 +12609,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13">
       <c r="A233">
         <v>2014</v>
       </c>
@@ -12667,7 +12650,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13">
       <c r="A234">
         <v>2014</v>
       </c>
@@ -12708,7 +12691,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13">
       <c r="A235">
         <v>2014</v>
       </c>
@@ -12749,7 +12732,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13">
       <c r="A236">
         <v>2014</v>
       </c>
@@ -12790,7 +12773,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13">
       <c r="A237">
         <v>2014</v>
       </c>
@@ -12831,7 +12814,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13">
       <c r="A238">
         <v>2014</v>
       </c>
@@ -12872,7 +12855,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13">
       <c r="A239">
         <v>2014</v>
       </c>
@@ -12913,7 +12896,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13">
       <c r="A240">
         <v>2014</v>
       </c>
@@ -12954,7 +12937,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13">
       <c r="A241">
         <v>2014</v>
       </c>
@@ -12995,7 +12978,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13">
       <c r="A242">
         <v>2014</v>
       </c>
@@ -13036,7 +13019,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13">
       <c r="A243">
         <v>2014</v>
       </c>
@@ -13077,7 +13060,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13">
       <c r="A244">
         <v>2014</v>
       </c>
@@ -13118,7 +13101,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13">
       <c r="A245">
         <v>2014</v>
       </c>
@@ -13159,7 +13142,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13">
       <c r="A246">
         <v>2014</v>
       </c>
@@ -13200,7 +13183,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13">
       <c r="A247">
         <v>2014</v>
       </c>
@@ -13241,7 +13224,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13">
       <c r="A248">
         <v>2014</v>
       </c>
@@ -13282,7 +13265,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13">
       <c r="A249">
         <v>2014</v>
       </c>
@@ -13323,7 +13306,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13">
       <c r="A250">
         <v>2014</v>
       </c>
@@ -13364,7 +13347,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13">
       <c r="A251">
         <v>2014</v>
       </c>
@@ -13405,7 +13388,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13">
       <c r="A252">
         <v>2014</v>
       </c>
@@ -13446,7 +13429,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13">
       <c r="A253">
         <v>2014</v>
       </c>
@@ -13487,7 +13470,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13">
       <c r="A254">
         <v>2014</v>
       </c>
@@ -13528,7 +13511,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13">
       <c r="A255">
         <v>2014</v>
       </c>
@@ -13569,7 +13552,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13">
       <c r="A256">
         <v>2014</v>
       </c>
@@ -13610,7 +13593,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13">
       <c r="A257">
         <v>2014</v>
       </c>
@@ -13651,7 +13634,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13">
       <c r="A258">
         <v>2014</v>
       </c>
@@ -13692,7 +13675,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13">
       <c r="A259">
         <v>2014</v>
       </c>
@@ -13733,7 +13716,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13">
       <c r="A260">
         <v>2014</v>
       </c>
@@ -13774,7 +13757,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13">
       <c r="A261">
         <v>2014</v>
       </c>
@@ -13815,7 +13798,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13">
       <c r="A262">
         <v>2014</v>
       </c>
@@ -13856,7 +13839,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13">
       <c r="A263">
         <v>2014</v>
       </c>
@@ -13897,7 +13880,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13">
       <c r="A264">
         <v>2014</v>
       </c>
@@ -13938,7 +13921,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13">
       <c r="A265">
         <v>2014</v>
       </c>
@@ -13979,7 +13962,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13">
       <c r="A266">
         <v>2014</v>
       </c>
@@ -14020,7 +14003,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13">
       <c r="A267">
         <v>2014</v>
       </c>
@@ -14061,7 +14044,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13">
       <c r="A268">
         <v>2014</v>
       </c>
@@ -14102,7 +14085,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13">
       <c r="A269">
         <v>2014</v>
       </c>
@@ -14143,7 +14126,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13">
       <c r="A270">
         <v>2014</v>
       </c>
@@ -14184,7 +14167,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13">
       <c r="A271">
         <v>2014</v>
       </c>
@@ -14225,7 +14208,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13">
       <c r="A272">
         <v>2014</v>
       </c>
@@ -14266,7 +14249,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13">
       <c r="A273">
         <v>2014</v>
       </c>
@@ -14307,7 +14290,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13">
       <c r="A274">
         <v>2014</v>
       </c>
@@ -14348,7 +14331,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13">
       <c r="A275">
         <v>2014</v>
       </c>
@@ -14389,7 +14372,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13">
       <c r="A276">
         <v>2014</v>
       </c>
@@ -14430,7 +14413,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13">
       <c r="A277">
         <v>2014</v>
       </c>
@@ -14471,7 +14454,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13">
       <c r="A278">
         <v>2014</v>
       </c>
@@ -14512,7 +14495,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13">
       <c r="A279">
         <v>2014</v>
       </c>
@@ -14553,7 +14536,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13">
       <c r="A280">
         <v>2014</v>
       </c>
@@ -14594,7 +14577,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13">
       <c r="A281">
         <v>2014</v>
       </c>
@@ -14635,7 +14618,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13">
       <c r="A282">
         <v>2014</v>
       </c>
@@ -14676,7 +14659,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13">
       <c r="A283">
         <v>2014</v>
       </c>
@@ -14717,7 +14700,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13">
       <c r="A284">
         <v>2014</v>
       </c>
@@ -14758,7 +14741,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13">
       <c r="A285">
         <v>2014</v>
       </c>
@@ -14799,7 +14782,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13">
       <c r="A286">
         <v>2014</v>
       </c>
@@ -14840,7 +14823,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13">
       <c r="A287">
         <v>2014</v>
       </c>
@@ -14881,7 +14864,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13">
       <c r="A288">
         <v>2014</v>
       </c>
@@ -14922,7 +14905,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13">
       <c r="A289">
         <v>2014</v>
       </c>
@@ -14963,7 +14946,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13">
       <c r="A290">
         <v>2014</v>
       </c>
@@ -15004,7 +14987,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13">
       <c r="A291">
         <v>2014</v>
       </c>
@@ -15045,7 +15028,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13">
       <c r="A292">
         <v>2014</v>
       </c>
@@ -15086,7 +15069,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13">
       <c r="A293">
         <v>2014</v>
       </c>
@@ -15127,7 +15110,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13">
       <c r="A294">
         <v>2014</v>
       </c>
@@ -15168,7 +15151,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13">
       <c r="A295">
         <v>2014</v>
       </c>
@@ -15209,7 +15192,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13">
       <c r="A296">
         <v>2014</v>
       </c>
@@ -15250,7 +15233,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13">
       <c r="A297">
         <v>2014</v>
       </c>
@@ -15291,7 +15274,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13">
       <c r="A298">
         <v>2014</v>
       </c>
@@ -15332,7 +15315,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13">
       <c r="A299">
         <v>2014</v>
       </c>
@@ -15373,7 +15356,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13">
       <c r="A300">
         <v>2014</v>
       </c>
@@ -15414,7 +15397,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13">
       <c r="A301">
         <v>2014</v>
       </c>
@@ -15455,7 +15438,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13">
       <c r="A302">
         <v>2014</v>
       </c>
@@ -15496,7 +15479,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13">
       <c r="A303">
         <v>2014</v>
       </c>
@@ -15537,7 +15520,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13">
       <c r="A304">
         <v>2014</v>
       </c>
@@ -15578,7 +15561,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13">
       <c r="A305">
         <v>2014</v>
       </c>
@@ -15619,7 +15602,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13">
       <c r="A306">
         <v>2014</v>
       </c>
@@ -15660,7 +15643,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13">
       <c r="A307">
         <v>2014</v>
       </c>
@@ -15701,7 +15684,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13">
       <c r="A308">
         <v>2014</v>
       </c>
@@ -15742,7 +15725,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13">
       <c r="A309">
         <v>2014</v>
       </c>
@@ -15783,7 +15766,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13">
       <c r="A310">
         <v>2014</v>
       </c>
@@ -15824,7 +15807,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13">
       <c r="A311">
         <v>2014</v>
       </c>
@@ -15865,7 +15848,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13">
       <c r="A312">
         <v>2014</v>
       </c>
@@ -15906,7 +15889,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13">
       <c r="A313">
         <v>2014</v>
       </c>
@@ -15947,7 +15930,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13">
       <c r="A314">
         <v>2014</v>
       </c>
@@ -15988,7 +15971,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13">
       <c r="A315">
         <v>2014</v>
       </c>
@@ -16029,7 +16012,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13">
       <c r="A316">
         <v>2014</v>
       </c>
@@ -16070,7 +16053,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13">
       <c r="A317">
         <v>2014</v>
       </c>
@@ -16111,7 +16094,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13">
       <c r="A318">
         <v>2014</v>
       </c>
@@ -16152,7 +16135,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13">
       <c r="A319">
         <v>2014</v>
       </c>
@@ -16193,7 +16176,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13">
       <c r="A320">
         <v>2014</v>
       </c>
@@ -16234,7 +16217,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13">
       <c r="A321">
         <v>2014</v>
       </c>
@@ -16275,7 +16258,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13">
       <c r="A322">
         <v>2014</v>
       </c>
@@ -16316,7 +16299,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13">
       <c r="A323">
         <v>2014</v>
       </c>
@@ -16357,7 +16340,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13">
       <c r="A324">
         <v>2014</v>
       </c>
@@ -16398,7 +16381,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13">
       <c r="A325">
         <v>2014</v>
       </c>
@@ -16439,7 +16422,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13">
       <c r="A326">
         <v>2014</v>
       </c>
@@ -16480,7 +16463,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13">
       <c r="A327">
         <v>2014</v>
       </c>
@@ -16521,7 +16504,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13">
       <c r="A328">
         <v>2014</v>
       </c>
@@ -16562,7 +16545,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13">
       <c r="A329">
         <v>2014</v>
       </c>
@@ -16603,7 +16586,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13">
       <c r="A330">
         <v>2014</v>
       </c>
@@ -16644,7 +16627,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13">
       <c r="A331">
         <v>2014</v>
       </c>
@@ -16685,7 +16668,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13">
       <c r="A332">
         <v>2014</v>
       </c>
@@ -16726,7 +16709,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13">
       <c r="A333">
         <v>2014</v>
       </c>
@@ -16767,7 +16750,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13">
       <c r="A334">
         <v>2014</v>
       </c>
@@ -16808,7 +16791,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13">
       <c r="A335">
         <v>2014</v>
       </c>
@@ -16849,7 +16832,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13">
       <c r="A336">
         <v>2014</v>
       </c>
@@ -16890,7 +16873,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13">
       <c r="A337">
         <v>2014</v>
       </c>
@@ -16931,7 +16914,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13">
       <c r="A338">
         <v>2014</v>
       </c>
@@ -16972,7 +16955,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13">
       <c r="A339">
         <v>2014</v>
       </c>
@@ -17013,7 +16996,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13">
       <c r="A340">
         <v>2014</v>
       </c>
@@ -17054,7 +17037,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13">
       <c r="A341">
         <v>2014</v>
       </c>
@@ -17095,7 +17078,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13">
       <c r="A342">
         <v>2014</v>
       </c>
@@ -17136,7 +17119,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13">
       <c r="A343">
         <v>2014</v>
       </c>
@@ -17177,7 +17160,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13">
       <c r="A344">
         <v>2014</v>
       </c>
@@ -17218,7 +17201,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13">
       <c r="A345">
         <v>2014</v>
       </c>
@@ -17259,7 +17242,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13">
       <c r="A346">
         <v>2014</v>
       </c>
@@ -17300,7 +17283,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13">
       <c r="A347">
         <v>2014</v>
       </c>
@@ -17341,7 +17324,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13">
       <c r="A348">
         <v>2014</v>
       </c>
@@ -17382,7 +17365,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13">
       <c r="A349">
         <v>2014</v>
       </c>
@@ -17423,7 +17406,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13">
       <c r="A350">
         <v>2014</v>
       </c>
@@ -17464,7 +17447,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13">
       <c r="A351">
         <v>2014</v>
       </c>
@@ -17505,7 +17488,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13">
       <c r="A352">
         <v>2014</v>
       </c>
@@ -17546,7 +17529,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13">
       <c r="A353">
         <v>2014</v>
       </c>
@@ -17587,7 +17570,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13">
       <c r="A354">
         <v>2014</v>
       </c>
@@ -17628,7 +17611,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13">
       <c r="A355">
         <v>2014</v>
       </c>
@@ -17669,7 +17652,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13">
       <c r="A356">
         <v>2014</v>
       </c>
@@ -17710,7 +17693,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:13">
       <c r="A357">
         <v>2014</v>
       </c>
@@ -17751,7 +17734,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13">
       <c r="A358">
         <v>2014</v>
       </c>
@@ -17792,7 +17775,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:13">
       <c r="A359">
         <v>2014</v>
       </c>
@@ -17833,7 +17816,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13">
       <c r="A360">
         <v>2014</v>
       </c>
@@ -17874,7 +17857,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13">
       <c r="A361">
         <v>2014</v>
       </c>
@@ -17915,7 +17898,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13">
       <c r="A362">
         <v>2014</v>
       </c>
@@ -17956,7 +17939,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13">
       <c r="A363">
         <v>2014</v>
       </c>
@@ -17997,7 +17980,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13">
       <c r="A364">
         <v>2014</v>
       </c>
@@ -18038,7 +18021,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13">
       <c r="A365">
         <v>2014</v>
       </c>
@@ -18079,7 +18062,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13">
       <c r="A366">
         <v>2014</v>
       </c>
@@ -18120,7 +18103,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13">
       <c r="A367">
         <v>2014</v>
       </c>
@@ -18161,7 +18144,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13">
       <c r="A368">
         <v>2014</v>
       </c>
@@ -18202,7 +18185,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13">
       <c r="A369">
         <v>2014</v>
       </c>
@@ -18243,7 +18226,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13">
       <c r="A370">
         <v>2014</v>
       </c>
@@ -18284,7 +18267,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:13">
       <c r="A371">
         <v>2014</v>
       </c>
@@ -18325,7 +18308,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13">
       <c r="A372">
         <v>2014</v>
       </c>
@@ -18366,7 +18349,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:13">
       <c r="A373">
         <v>2014</v>
       </c>
@@ -18407,7 +18390,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13">
       <c r="A374">
         <v>2014</v>
       </c>
@@ -18448,7 +18431,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:13">
       <c r="A375">
         <v>2014</v>
       </c>
@@ -18489,7 +18472,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:13">
       <c r="A376">
         <v>2014</v>
       </c>
@@ -18530,7 +18513,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:13">
       <c r="A377">
         <v>2014</v>
       </c>
@@ -18571,7 +18554,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:13">
       <c r="A378">
         <v>2014</v>
       </c>
@@ -18612,7 +18595,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:13">
       <c r="A379">
         <v>2014</v>
       </c>
@@ -18653,7 +18636,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:13">
       <c r="A380">
         <v>2014</v>
       </c>
@@ -18694,7 +18677,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:13">
       <c r="A381">
         <v>2014</v>
       </c>
@@ -18735,7 +18718,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:13">
       <c r="A382">
         <v>2014</v>
       </c>
@@ -18776,7 +18759,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:13">
       <c r="A383">
         <v>2014</v>
       </c>
@@ -18817,7 +18800,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:13">
       <c r="A384">
         <v>2014</v>
       </c>
@@ -18858,7 +18841,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:13">
       <c r="A385">
         <v>2014</v>
       </c>
@@ -18899,7 +18882,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:13">
       <c r="A386">
         <v>2014</v>
       </c>
@@ -18940,7 +18923,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:13">
       <c r="A387">
         <v>2014</v>
       </c>
@@ -18981,7 +18964,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:13">
       <c r="A388">
         <v>2014</v>
       </c>
@@ -19022,7 +19005,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:13">
       <c r="A389">
         <v>2014</v>
       </c>
@@ -19063,7 +19046,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:13">
       <c r="A390">
         <v>2014</v>
       </c>
@@ -19104,7 +19087,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:13">
       <c r="A391">
         <v>2014</v>
       </c>
@@ -19145,7 +19128,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:13">
       <c r="A392">
         <v>2014</v>
       </c>
@@ -19186,7 +19169,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:13">
       <c r="A393">
         <v>2014</v>
       </c>
@@ -19227,7 +19210,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:13">
       <c r="A394">
         <v>2014</v>
       </c>
@@ -19268,7 +19251,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:13">
       <c r="A395">
         <v>2014</v>
       </c>
@@ -19309,7 +19292,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:13">
       <c r="A396">
         <v>2014</v>
       </c>
@@ -19350,7 +19333,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:13">
       <c r="A397">
         <v>2014</v>
       </c>
@@ -19391,7 +19374,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:13">
       <c r="A398">
         <v>2014</v>
       </c>
@@ -19432,7 +19415,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:13">
       <c r="A399">
         <v>2014</v>
       </c>
@@ -19473,7 +19456,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:13">
       <c r="A400">
         <v>2014</v>
       </c>
@@ -19514,7 +19497,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:13">
       <c r="A401">
         <v>2014</v>
       </c>
@@ -19555,7 +19538,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:13">
       <c r="A402">
         <v>2014</v>
       </c>
@@ -19596,7 +19579,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:13">
       <c r="A403">
         <v>2014</v>
       </c>
@@ -19637,7 +19620,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:13">
       <c r="A404">
         <v>2014</v>
       </c>
@@ -19678,7 +19661,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:13">
       <c r="A405">
         <v>2014</v>
       </c>
@@ -19719,7 +19702,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:13">
       <c r="A406">
         <v>2014</v>
       </c>
@@ -19760,7 +19743,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:13">
       <c r="A407">
         <v>2014</v>
       </c>
@@ -19801,7 +19784,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:13">
       <c r="A408">
         <v>2014</v>
       </c>
@@ -19842,7 +19825,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:13">
       <c r="A409">
         <v>2014</v>
       </c>
@@ -19883,7 +19866,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:13">
       <c r="A410">
         <v>2014</v>
       </c>
@@ -19924,7 +19907,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:13">
       <c r="A411">
         <v>2014</v>
       </c>
@@ -19965,7 +19948,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:13">
       <c r="A412">
         <v>2014</v>
       </c>
@@ -20006,7 +19989,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:13">
       <c r="A413">
         <v>2014</v>
       </c>
@@ -20047,7 +20030,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:13">
       <c r="A414">
         <v>2014</v>
       </c>
@@ -20088,7 +20071,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:13">
       <c r="A415">
         <v>2014</v>
       </c>
@@ -20129,7 +20112,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:13">
       <c r="A416">
         <v>2014</v>
       </c>
@@ -20170,7 +20153,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:13">
       <c r="A417">
         <v>2014</v>
       </c>
@@ -20211,7 +20194,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:13">
       <c r="A418">
         <v>2014</v>
       </c>
@@ -20252,7 +20235,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:13">
       <c r="A419">
         <v>2014</v>
       </c>
@@ -20293,7 +20276,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:13">
       <c r="A420">
         <v>2014</v>
       </c>
@@ -20334,7 +20317,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:13">
       <c r="A421">
         <v>2014</v>
       </c>
@@ -20375,7 +20358,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:13">
       <c r="A422">
         <v>2014</v>
       </c>
@@ -20416,7 +20399,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:13">
       <c r="A423">
         <v>2014</v>
       </c>
@@ -20457,7 +20440,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:13">
       <c r="A424">
         <v>2014</v>
       </c>
@@ -20498,7 +20481,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:13">
       <c r="A425">
         <v>2014</v>
       </c>
@@ -20539,7 +20522,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:13">
       <c r="A426">
         <v>2014</v>
       </c>
@@ -20580,7 +20563,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:13">
       <c r="A427">
         <v>2014</v>
       </c>
@@ -20621,7 +20604,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:13">
       <c r="A428">
         <v>2014</v>
       </c>
@@ -20662,7 +20645,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:13">
       <c r="A429">
         <v>2014</v>
       </c>
@@ -20703,7 +20686,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:13">
       <c r="A430">
         <v>2014</v>
       </c>
@@ -20744,7 +20727,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:13">
       <c r="A431">
         <v>2014</v>
       </c>
@@ -20785,7 +20768,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:13">
       <c r="A432">
         <v>2014</v>
       </c>
@@ -20826,7 +20809,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:13">
       <c r="A433">
         <v>2014</v>
       </c>
@@ -20867,7 +20850,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:13">
       <c r="A434">
         <v>2014</v>
       </c>
@@ -20908,7 +20891,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:13">
       <c r="A435">
         <v>2014</v>
       </c>
@@ -20949,7 +20932,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:13">
       <c r="A436">
         <v>2014</v>
       </c>
@@ -20990,7 +20973,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:13">
       <c r="A437">
         <v>2014</v>
       </c>
@@ -21031,7 +21014,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:13">
       <c r="A438">
         <v>2014</v>
       </c>
@@ -21072,7 +21055,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:13">
       <c r="A439">
         <v>2014</v>
       </c>
@@ -21113,7 +21096,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:13">
       <c r="A440">
         <v>2014</v>
       </c>
@@ -21154,7 +21137,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:13">
       <c r="A441">
         <v>2014</v>
       </c>
@@ -21195,7 +21178,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:13">
       <c r="A442">
         <v>2014</v>
       </c>
@@ -21236,7 +21219,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:13">
       <c r="A443">
         <v>2014</v>
       </c>
@@ -21277,7 +21260,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:13">
       <c r="A444">
         <v>2014</v>
       </c>
@@ -21318,7 +21301,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:13">
       <c r="A445">
         <v>2014</v>
       </c>
@@ -21359,7 +21342,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:13">
       <c r="A446">
         <v>2014</v>
       </c>
@@ -21400,7 +21383,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:13">
       <c r="A447">
         <v>2014</v>
       </c>
@@ -21441,7 +21424,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:13">
       <c r="A448">
         <v>2014</v>
       </c>
@@ -21482,7 +21465,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:13">
       <c r="A449">
         <v>2014</v>
       </c>
@@ -21523,7 +21506,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:13">
       <c r="A450">
         <v>2014</v>
       </c>
@@ -21564,7 +21547,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:13">
       <c r="A451">
         <v>2014</v>
       </c>
@@ -21605,7 +21588,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:13">
       <c r="A452">
         <v>2014</v>
       </c>
@@ -21646,7 +21629,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:13">
       <c r="A453">
         <v>2014</v>
       </c>
@@ -21687,7 +21670,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:13">
       <c r="A454">
         <v>2014</v>
       </c>
@@ -21728,7 +21711,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:13">
       <c r="A455">
         <v>2014</v>
       </c>
@@ -21769,7 +21752,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:13">
       <c r="A456">
         <v>2014</v>
       </c>
@@ -21810,7 +21793,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:13">
       <c r="A457">
         <v>2014</v>
       </c>
@@ -21851,7 +21834,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:13">
       <c r="A458">
         <v>2014</v>
       </c>
@@ -21892,7 +21875,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:13">
       <c r="A459">
         <v>2014</v>
       </c>
@@ -21933,7 +21916,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:13">
       <c r="A460">
         <v>2014</v>
       </c>
@@ -21974,7 +21957,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:13">
       <c r="A461">
         <v>2014</v>
       </c>
@@ -22015,7 +21998,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:13">
       <c r="A462">
         <v>2014</v>
       </c>
@@ -22056,7 +22039,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:13">
       <c r="A463">
         <v>2014</v>
       </c>
@@ -22097,7 +22080,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:13">
       <c r="A464">
         <v>2014</v>
       </c>
@@ -22138,7 +22121,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:13">
       <c r="A465">
         <v>2014</v>
       </c>
@@ -22179,7 +22162,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:13">
       <c r="A466">
         <v>2014</v>
       </c>
@@ -22220,7 +22203,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:13">
       <c r="A467">
         <v>2014</v>
       </c>
@@ -22261,7 +22244,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:13">
       <c r="A468">
         <v>2014</v>
       </c>
@@ -22302,7 +22285,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:13">
       <c r="A469">
         <v>2014</v>
       </c>
@@ -22343,7 +22326,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:13">
       <c r="A470">
         <v>2014</v>
       </c>
@@ -22384,7 +22367,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:13">
       <c r="A471">
         <v>2014</v>
       </c>
@@ -22425,7 +22408,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:13">
       <c r="A472">
         <v>2014</v>
       </c>
@@ -22466,7 +22449,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:13">
       <c r="A473">
         <v>2014</v>
       </c>
@@ -22507,7 +22490,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:13">
       <c r="A474">
         <v>2014</v>
       </c>
@@ -22548,7 +22531,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:13">
       <c r="A475">
         <v>2014</v>
       </c>
@@ -22589,7 +22572,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:13">
       <c r="A476">
         <v>2014</v>
       </c>
@@ -22630,7 +22613,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:13">
       <c r="A477">
         <v>2014</v>
       </c>
@@ -22671,7 +22654,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:13">
       <c r="A478">
         <v>2014</v>
       </c>
@@ -22712,7 +22695,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:13">
       <c r="A479">
         <v>2014</v>
       </c>
@@ -22753,7 +22736,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:13">
       <c r="A480">
         <v>2014</v>
       </c>
@@ -22794,7 +22777,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:13">
       <c r="A481">
         <v>2014</v>
       </c>
@@ -22835,7 +22818,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:13">
       <c r="A482">
         <v>2014</v>
       </c>
@@ -22876,7 +22859,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:13">
       <c r="A483">
         <v>2014</v>
       </c>
@@ -22917,7 +22900,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:13">
       <c r="A484">
         <v>2014</v>
       </c>
@@ -22958,7 +22941,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:13">
       <c r="A485">
         <v>2014</v>
       </c>
@@ -22999,7 +22982,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:13">
       <c r="A486">
         <v>2014</v>
       </c>
@@ -23040,7 +23023,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:13">
       <c r="A487">
         <v>2014</v>
       </c>
@@ -23081,7 +23064,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:13">
       <c r="A488">
         <v>2014</v>
       </c>
@@ -23122,7 +23105,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:13">
       <c r="A489">
         <v>2014</v>
       </c>
@@ -23163,7 +23146,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:13">
       <c r="A490">
         <v>2014</v>
       </c>
@@ -23204,7 +23187,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:13">
       <c r="A491">
         <v>2014</v>
       </c>
@@ -23245,7 +23228,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:13">
       <c r="A492">
         <v>2014</v>
       </c>
@@ -23286,7 +23269,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:13">
       <c r="A493">
         <v>2014</v>
       </c>
@@ -23327,7 +23310,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:13">
       <c r="A494">
         <v>2014</v>
       </c>
@@ -23368,7 +23351,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:13">
       <c r="A495">
         <v>2014</v>
       </c>
@@ -23409,7 +23392,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:13">
       <c r="A496">
         <v>2014</v>
       </c>
@@ -23450,7 +23433,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:13">
       <c r="A497">
         <v>2014</v>
       </c>
@@ -23491,7 +23474,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:13">
       <c r="A498">
         <v>2014</v>
       </c>
@@ -23532,7 +23515,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:13">
       <c r="A499">
         <v>2014</v>
       </c>
@@ -23573,7 +23556,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:13">
       <c r="A500">
         <v>2014</v>
       </c>
@@ -23614,7 +23597,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:13">
       <c r="A501">
         <v>2014</v>
       </c>
@@ -23655,7 +23638,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:13">
       <c r="A502">
         <v>2014</v>
       </c>
@@ -23696,7 +23679,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:13">
       <c r="A503">
         <v>2014</v>
       </c>
@@ -23737,7 +23720,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:13">
       <c r="A504">
         <v>2014</v>
       </c>
@@ -23778,7 +23761,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:13">
       <c r="A505">
         <v>2014</v>
       </c>
@@ -23819,7 +23802,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:13">
       <c r="A506">
         <v>2014</v>
       </c>
@@ -23860,7 +23843,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:13">
       <c r="A507">
         <v>2014</v>
       </c>
@@ -23901,7 +23884,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:13">
       <c r="A508">
         <v>2014</v>
       </c>
@@ -23942,7 +23925,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:13">
       <c r="A509">
         <v>2014</v>
       </c>
@@ -23983,7 +23966,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:13">
       <c r="A510">
         <v>2014</v>
       </c>
@@ -24024,7 +24007,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:13">
       <c r="A511">
         <v>2014</v>
       </c>
@@ -24065,7 +24048,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:13">
       <c r="A512">
         <v>2014</v>
       </c>
@@ -24106,7 +24089,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:13">
       <c r="A513">
         <v>2014</v>
       </c>
@@ -24147,7 +24130,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:13">
       <c r="A514">
         <v>2014</v>
       </c>
@@ -24188,7 +24171,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:13">
       <c r="A515">
         <v>2014</v>
       </c>
@@ -24229,7 +24212,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:13">
       <c r="A516">
         <v>2014</v>
       </c>
@@ -24270,7 +24253,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:13">
       <c r="A517">
         <v>2014</v>
       </c>
@@ -24311,7 +24294,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:13">
       <c r="A518">
         <v>2014</v>
       </c>
@@ -24352,7 +24335,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:13">
       <c r="A519">
         <v>2014</v>
       </c>
@@ -24393,7 +24376,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:13">
       <c r="A520">
         <v>2014</v>
       </c>
@@ -24434,7 +24417,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:13">
       <c r="A521">
         <v>2014</v>
       </c>
@@ -24475,7 +24458,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:13">
       <c r="A522">
         <v>2014</v>
       </c>
@@ -24516,7 +24499,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:13">
       <c r="A523">
         <v>2014</v>
       </c>
@@ -24557,7 +24540,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:13">
       <c r="A524">
         <v>2014</v>
       </c>
@@ -24598,7 +24581,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:13">
       <c r="A525">
         <v>2014</v>
       </c>
@@ -24639,7 +24622,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:13">
       <c r="A526">
         <v>2014</v>
       </c>
@@ -24680,7 +24663,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:13">
       <c r="A527">
         <v>2014</v>
       </c>
@@ -24721,7 +24704,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:13">
       <c r="A528">
         <v>2014</v>
       </c>
@@ -24762,7 +24745,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:13">
       <c r="A529">
         <v>2014</v>
       </c>
@@ -24803,7 +24786,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:13">
       <c r="A530">
         <v>2014</v>
       </c>
@@ -24844,7 +24827,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:13">
       <c r="A531">
         <v>2014</v>
       </c>
@@ -24885,7 +24868,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:13">
       <c r="A532">
         <v>2014</v>
       </c>
@@ -24926,7 +24909,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:13">
       <c r="A533">
         <v>2014</v>
       </c>
@@ -24967,7 +24950,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:13">
       <c r="A534">
         <v>2014</v>
       </c>
@@ -25008,7 +24991,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:13">
       <c r="A535">
         <v>2014</v>
       </c>
@@ -25049,7 +25032,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:13">
       <c r="A536">
         <v>2014</v>
       </c>
@@ -25090,7 +25073,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:13">
       <c r="A537">
         <v>2014</v>
       </c>
@@ -25131,7 +25114,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:13">
       <c r="A538">
         <v>2014</v>
       </c>
@@ -25172,7 +25155,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:13">
       <c r="A539">
         <v>2014</v>
       </c>
@@ -25213,7 +25196,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:13">
       <c r="A540">
         <v>2014</v>
       </c>
@@ -25254,7 +25237,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:13">
       <c r="A541">
         <v>2014</v>
       </c>
@@ -25295,7 +25278,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:13">
       <c r="A542">
         <v>2014</v>
       </c>
@@ -25336,7 +25319,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:13">
       <c r="A543">
         <v>2014</v>
       </c>
@@ -25377,7 +25360,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:13">
       <c r="A544">
         <v>2014</v>
       </c>
@@ -25418,7 +25401,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:13">
       <c r="A545">
         <v>2014</v>
       </c>
@@ -25459,7 +25442,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:13">
       <c r="A546">
         <v>2014</v>
       </c>
@@ -25500,7 +25483,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:13">
       <c r="A547">
         <v>2014</v>
       </c>
@@ -25541,7 +25524,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:13">
       <c r="A548">
         <v>2014</v>
       </c>
@@ -25582,7 +25565,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:13">
       <c r="A549">
         <v>2014</v>
       </c>
@@ -25623,7 +25606,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:13">
       <c r="A550">
         <v>2014</v>
       </c>
@@ -25664,7 +25647,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:13">
       <c r="A551">
         <v>2014</v>
       </c>
@@ -25705,7 +25688,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:13">
       <c r="A552">
         <v>2014</v>
       </c>
@@ -25746,7 +25729,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:13">
       <c r="A553">
         <v>2014</v>
       </c>
@@ -25787,7 +25770,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:13">
       <c r="A554">
         <v>2014</v>
       </c>
@@ -25828,7 +25811,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:13">
       <c r="A555">
         <v>2014</v>
       </c>
@@ -25869,7 +25852,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:13">
       <c r="A556">
         <v>2014</v>
       </c>
@@ -25910,7 +25893,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:13">
       <c r="A557">
         <v>2014</v>
       </c>
@@ -25951,7 +25934,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:13">
       <c r="A558">
         <v>2014</v>
       </c>
@@ -25992,7 +25975,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:13">
       <c r="A559">
         <v>2014</v>
       </c>
@@ -26033,7 +26016,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:13">
       <c r="A560">
         <v>2014</v>
       </c>
@@ -26074,7 +26057,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:13">
       <c r="A561">
         <v>2014</v>
       </c>
@@ -26115,7 +26098,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:13">
       <c r="A562">
         <v>2014</v>
       </c>
@@ -26156,7 +26139,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:13">
       <c r="A563">
         <v>2014</v>
       </c>
@@ -26197,7 +26180,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:13">
       <c r="A564">
         <v>2014</v>
       </c>
@@ -26238,7 +26221,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:13">
       <c r="A565">
         <v>2014</v>
       </c>
@@ -26279,7 +26262,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:13">
       <c r="A566">
         <v>2014</v>
       </c>
@@ -26320,7 +26303,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:13">
       <c r="A567">
         <v>2014</v>
       </c>
@@ -26361,7 +26344,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:13">
       <c r="A568">
         <v>2014</v>
       </c>
@@ -26402,7 +26385,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:13">
       <c r="A569">
         <v>2014</v>
       </c>
@@ -26443,7 +26426,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:13">
       <c r="A570">
         <v>2014</v>
       </c>
@@ -26484,7 +26467,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:13">
       <c r="A571">
         <v>2014</v>
       </c>
@@ -26525,7 +26508,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:13">
       <c r="A572">
         <v>2014</v>
       </c>
@@ -26566,7 +26549,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:13">
       <c r="A573">
         <v>2014</v>
       </c>
@@ -26607,7 +26590,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:13">
       <c r="A574">
         <v>2014</v>
       </c>
@@ -26648,7 +26631,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:13">
       <c r="A575">
         <v>2014</v>
       </c>
@@ -26689,7 +26672,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:13">
       <c r="A576">
         <v>2014</v>
       </c>
@@ -26730,7 +26713,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:13">
       <c r="A577">
         <v>2014</v>
       </c>
@@ -26771,7 +26754,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:13">
       <c r="A578">
         <v>2014</v>
       </c>
@@ -26812,7 +26795,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:13">
       <c r="A579">
         <v>2014</v>
       </c>
@@ -26853,7 +26836,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:13">
       <c r="A580">
         <v>2014</v>
       </c>
@@ -26894,7 +26877,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:13">
       <c r="A581">
         <v>2014</v>
       </c>
@@ -26935,7 +26918,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:13">
       <c r="A582">
         <v>2014</v>
       </c>
@@ -26976,7 +26959,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:13">
       <c r="A583">
         <v>2014</v>
       </c>
@@ -27017,7 +27000,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:13">
       <c r="A584">
         <v>2014</v>
       </c>
@@ -27058,7 +27041,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:13">
       <c r="A585">
         <v>2014</v>
       </c>
@@ -27099,7 +27082,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:13">
       <c r="A586">
         <v>2014</v>
       </c>
@@ -27140,7 +27123,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:13">
       <c r="A587">
         <v>2014</v>
       </c>
@@ -27181,7 +27164,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:13">
       <c r="A588">
         <v>2014</v>
       </c>
@@ -27222,7 +27205,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:13">
       <c r="A589">
         <v>2014</v>
       </c>
@@ -27263,7 +27246,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:13">
       <c r="A590">
         <v>2014</v>
       </c>
@@ -27304,7 +27287,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:13">
       <c r="A591">
         <v>2014</v>
       </c>
@@ -27345,7 +27328,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:13">
       <c r="A592">
         <v>2014</v>
       </c>
@@ -27386,7 +27369,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:13">
       <c r="A593">
         <v>2014</v>
       </c>
@@ -27427,7 +27410,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:13">
       <c r="A594">
         <v>2014</v>
       </c>
@@ -27468,7 +27451,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:13">
       <c r="A595">
         <v>2014</v>
       </c>
@@ -27509,7 +27492,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:13">
       <c r="A596">
         <v>2014</v>
       </c>
@@ -27550,7 +27533,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:13">
       <c r="A597">
         <v>2014</v>
       </c>
@@ -27591,7 +27574,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:13">
       <c r="A598">
         <v>2014</v>
       </c>
@@ -27632,7 +27615,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:13">
       <c r="A599">
         <v>2014</v>
       </c>
@@ -27673,7 +27656,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:13">
       <c r="A600">
         <v>2014</v>
       </c>
@@ -27714,7 +27697,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:13">
       <c r="A601">
         <v>2014</v>
       </c>
@@ -27755,7 +27738,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:13">
       <c r="A602">
         <v>2014</v>
       </c>
@@ -27796,7 +27779,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:13">
       <c r="A603">
         <v>2014</v>
       </c>
@@ -27837,7 +27820,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:13">
       <c r="A604">
         <v>2014</v>
       </c>
@@ -27878,7 +27861,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:13">
       <c r="A605">
         <v>2014</v>
       </c>
@@ -27919,7 +27902,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:13">
       <c r="A606">
         <v>2014</v>
       </c>
@@ -27960,7 +27943,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:13">
       <c r="A607">
         <v>2014</v>
       </c>
@@ -28001,7 +27984,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:13">
       <c r="A608">
         <v>2014</v>
       </c>
@@ -28042,7 +28025,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:13">
       <c r="A609">
         <v>2014</v>
       </c>
@@ -28083,7 +28066,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:13">
       <c r="A610">
         <v>2014</v>
       </c>
@@ -28124,7 +28107,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:13">
       <c r="A611">
         <v>2014</v>
       </c>
@@ -28165,7 +28148,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:13">
       <c r="A612">
         <v>2014</v>
       </c>
@@ -28206,7 +28189,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:13">
       <c r="A613">
         <v>2014</v>
       </c>
@@ -28247,7 +28230,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:13">
       <c r="A614">
         <v>2014</v>
       </c>
@@ -28288,7 +28271,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:13">
       <c r="A615">
         <v>2014</v>
       </c>
@@ -28329,7 +28312,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:13">
       <c r="A616">
         <v>2014</v>
       </c>
@@ -28370,7 +28353,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:13">
       <c r="A617">
         <v>2014</v>
       </c>
@@ -28411,7 +28394,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:13">
       <c r="A618">
         <v>2014</v>
       </c>
@@ -28452,7 +28435,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:13">
       <c r="A619">
         <v>2014</v>
       </c>
@@ -28493,7 +28476,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:13">
       <c r="A620">
         <v>2014</v>
       </c>
@@ -28534,7 +28517,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:13">
       <c r="A621">
         <v>2014</v>
       </c>
@@ -28575,7 +28558,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:13">
       <c r="A622">
         <v>2014</v>
       </c>
@@ -28616,7 +28599,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:13">
       <c r="A623">
         <v>2014</v>
       </c>
@@ -28657,7 +28640,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:13">
       <c r="A624">
         <v>2014</v>
       </c>
@@ -28698,7 +28681,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:13">
       <c r="A625">
         <v>2014</v>
       </c>
@@ -28739,7 +28722,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:13">
       <c r="A626">
         <v>2014</v>
       </c>
@@ -28780,7 +28763,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:13">
       <c r="A627">
         <v>2014</v>
       </c>
@@ -28821,7 +28804,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:13">
       <c r="A628">
         <v>2014</v>
       </c>
@@ -28862,7 +28845,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:13">
       <c r="A629">
         <v>2014</v>
       </c>
@@ -28903,7 +28886,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:13">
       <c r="A630">
         <v>2014</v>
       </c>
@@ -28944,7 +28927,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:13">
       <c r="A631">
         <v>2014</v>
       </c>
@@ -28985,7 +28968,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:13">
       <c r="A632">
         <v>2014</v>
       </c>
@@ -29026,7 +29009,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:13">
       <c r="A633">
         <v>2014</v>
       </c>
@@ -29067,7 +29050,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:13">
       <c r="A634">
         <v>2014</v>
       </c>
@@ -29108,7 +29091,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:13">
       <c r="A635">
         <v>2014</v>
       </c>
@@ -29149,7 +29132,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:13">
       <c r="A636">
         <v>2014</v>
       </c>
@@ -29190,7 +29173,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:13">
       <c r="A637">
         <v>2014</v>
       </c>
@@ -29231,7 +29214,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:13">
       <c r="A638">
         <v>2014</v>
       </c>
@@ -29272,7 +29255,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:13">
       <c r="A639">
         <v>2014</v>
       </c>
@@ -29313,7 +29296,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:13">
       <c r="A640">
         <v>2014</v>
       </c>
@@ -29354,7 +29337,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:13">
       <c r="A641">
         <v>2014</v>
       </c>
@@ -29395,7 +29378,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:13">
       <c r="A642">
         <v>2014</v>
       </c>
@@ -29436,7 +29419,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:13">
       <c r="A643">
         <v>2014</v>
       </c>
@@ -29477,7 +29460,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:13">
       <c r="A644">
         <v>2014</v>
       </c>
@@ -29518,7 +29501,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:13">
       <c r="A645">
         <v>2014</v>
       </c>
@@ -29559,7 +29542,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:13">
       <c r="A646">
         <v>2014</v>
       </c>
@@ -29600,7 +29583,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:13">
       <c r="A647">
         <v>2014</v>
       </c>
@@ -29641,7 +29624,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:13">
       <c r="A648">
         <v>2014</v>
       </c>
@@ -29682,7 +29665,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:13">
       <c r="A649">
         <v>2014</v>
       </c>
@@ -29723,7 +29706,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:13">
       <c r="A650">
         <v>2014</v>
       </c>
@@ -29764,7 +29747,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:13">
       <c r="A651">
         <v>2014</v>
       </c>
@@ -29805,7 +29788,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:13">
       <c r="A652">
         <v>2014</v>
       </c>
@@ -29846,7 +29829,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:13">
       <c r="A653">
         <v>2014</v>
       </c>
@@ -29887,7 +29870,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:13">
       <c r="A654">
         <v>2014</v>
       </c>
@@ -29928,7 +29911,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:13">
       <c r="A655">
         <v>2014</v>
       </c>
@@ -29969,7 +29952,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:13">
       <c r="A656">
         <v>2014</v>
       </c>
@@ -30010,7 +29993,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:13">
       <c r="A657">
         <v>2014</v>
       </c>
@@ -30051,7 +30034,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:13">
       <c r="A658">
         <v>2014</v>
       </c>
@@ -30092,7 +30075,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:13">
       <c r="A659">
         <v>2014</v>
       </c>
@@ -30133,7 +30116,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="660" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:13">
       <c r="A660">
         <v>2014</v>
       </c>
@@ -30174,7 +30157,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:13">
       <c r="A661">
         <v>2014</v>
       </c>
@@ -30215,7 +30198,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="662" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:13">
       <c r="A662">
         <v>2014</v>
       </c>
@@ -30256,7 +30239,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:13">
       <c r="A663">
         <v>2014</v>
       </c>
@@ -30297,7 +30280,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="664" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:13">
       <c r="A664">
         <v>2014</v>
       </c>
@@ -30338,7 +30321,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:13">
       <c r="A665">
         <v>2014</v>
       </c>
@@ -30379,7 +30362,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:13">
       <c r="A666">
         <v>2014</v>
       </c>
@@ -30420,7 +30403,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:13">
       <c r="A667">
         <v>2014</v>
       </c>
@@ -30461,7 +30444,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:13">
       <c r="A668">
         <v>2014</v>
       </c>
@@ -30502,7 +30485,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:13">
       <c r="A669">
         <v>2014</v>
       </c>
@@ -30543,7 +30526,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:13">
       <c r="A670">
         <v>2014</v>
       </c>
@@ -30584,7 +30567,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:13">
       <c r="A671">
         <v>2014</v>
       </c>
@@ -30625,7 +30608,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:13">
       <c r="A672">
         <v>2014</v>
       </c>
@@ -30666,7 +30649,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:13">
       <c r="A673">
         <v>2014</v>
       </c>
@@ -30707,7 +30690,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="674" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:13">
       <c r="A674">
         <v>2014</v>
       </c>
@@ -30748,7 +30731,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:13">
       <c r="A675">
         <v>2014</v>
       </c>
@@ -30789,7 +30772,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:13">
       <c r="A676">
         <v>2014</v>
       </c>
@@ -30830,7 +30813,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="677" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:13">
       <c r="A677">
         <v>2014</v>
       </c>
@@ -30871,7 +30854,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:13">
       <c r="A678">
         <v>2014</v>
       </c>
@@ -30912,7 +30895,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:13">
       <c r="A679">
         <v>2014</v>
       </c>
@@ -30953,7 +30936,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:13">
       <c r="A680">
         <v>2014</v>
       </c>
@@ -30994,7 +30977,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:13">
       <c r="A681">
         <v>2014</v>
       </c>
@@ -31035,7 +31018,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:13">
       <c r="A682">
         <v>2014</v>
       </c>
@@ -31076,7 +31059,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:13">
       <c r="A683">
         <v>2014</v>
       </c>
@@ -31117,7 +31100,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:13">
       <c r="A684">
         <v>2014</v>
       </c>
@@ -31158,7 +31141,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="685" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:13">
       <c r="A685">
         <v>2014</v>
       </c>
@@ -31199,7 +31182,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:13">
       <c r="A686">
         <v>2014</v>
       </c>
@@ -31240,7 +31223,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:13">
       <c r="A687">
         <v>2014</v>
       </c>
@@ -31281,7 +31264,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="688" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:13">
       <c r="A688">
         <v>2014</v>
       </c>
@@ -31322,7 +31305,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:13">
       <c r="A689">
         <v>2014</v>
       </c>
@@ -31363,7 +31346,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:13">
       <c r="A690">
         <v>2014</v>
       </c>
@@ -31404,7 +31387,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:13">
       <c r="A691">
         <v>2014</v>
       </c>
@@ -31445,7 +31428,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:13">
       <c r="A692">
         <v>2014</v>
       </c>
@@ -31486,7 +31469,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:13">
       <c r="A693">
         <v>2014</v>
       </c>
@@ -31527,7 +31510,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:13">
       <c r="A694">
         <v>2014</v>
       </c>
@@ -31568,7 +31551,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:13">
       <c r="A695">
         <v>2014</v>
       </c>
@@ -31609,7 +31592,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:13">
       <c r="A696">
         <v>2014</v>
       </c>
@@ -31650,7 +31633,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:13">
       <c r="A697">
         <v>2014</v>
       </c>
@@ -31691,7 +31674,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:13">
       <c r="A698">
         <v>2014</v>
       </c>
@@ -31732,7 +31715,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:13">
       <c r="A699">
         <v>2014</v>
       </c>
@@ -31773,7 +31756,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:13">
       <c r="A700">
         <v>2014</v>
       </c>
@@ -31814,7 +31797,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:13">
       <c r="A701">
         <v>2014</v>
       </c>
@@ -31855,7 +31838,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:13">
       <c r="A702">
         <v>2014</v>
       </c>
@@ -31896,7 +31879,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:13">
       <c r="A703">
         <v>2014</v>
       </c>
@@ -31937,7 +31920,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:13">
       <c r="A704">
         <v>2014</v>
       </c>
@@ -31978,7 +31961,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:13">
       <c r="A705">
         <v>2014</v>
       </c>
@@ -32019,7 +32002,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:13">
       <c r="A706">
         <v>2014</v>
       </c>
@@ -32060,7 +32043,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:13">
       <c r="A707">
         <v>2014</v>
       </c>
@@ -32101,7 +32084,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:13">
       <c r="A708">
         <v>2014</v>
       </c>
@@ -32142,7 +32125,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:13">
       <c r="A709">
         <v>2014</v>
       </c>
@@ -32183,7 +32166,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:13">
       <c r="A710">
         <v>2014</v>
       </c>
@@ -32224,7 +32207,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="711" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:13">
       <c r="A711">
         <v>2014</v>
       </c>
@@ -32265,7 +32248,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:13">
       <c r="A712">
         <v>2014</v>
       </c>
@@ -32306,7 +32289,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="713" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:13">
       <c r="A713">
         <v>2014</v>
       </c>
@@ -32347,7 +32330,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:13">
       <c r="A714">
         <v>2014</v>
       </c>
@@ -32388,7 +32371,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:13">
       <c r="A715">
         <v>2014</v>
       </c>
@@ -32429,7 +32412,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:13">
       <c r="A716">
         <v>2014</v>
       </c>
@@ -32470,7 +32453,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:13">
       <c r="A717">
         <v>2014</v>
       </c>
@@ -32511,7 +32494,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:13">
       <c r="A718">
         <v>2014</v>
       </c>
@@ -32552,7 +32535,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:13">
       <c r="A719">
         <v>2014</v>
       </c>
@@ -32593,7 +32576,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:13">
       <c r="A720">
         <v>2014</v>
       </c>
@@ -32634,7 +32617,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:13">
       <c r="A721">
         <v>2014</v>
       </c>
@@ -32675,7 +32658,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:13">
       <c r="A722">
         <v>2014</v>
       </c>
@@ -32716,7 +32699,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="723" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:13">
       <c r="A723">
         <v>2014</v>
       </c>
@@ -32757,7 +32740,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="724" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:13">
       <c r="A724">
         <v>2014</v>
       </c>
@@ -32798,7 +32781,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="725" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:13">
       <c r="A725">
         <v>2014</v>
       </c>
@@ -32839,7 +32822,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="726" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:13">
       <c r="A726">
         <v>2014</v>
       </c>
@@ -32880,7 +32863,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="727" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:13">
       <c r="A727">
         <v>2014</v>
       </c>
@@ -32921,7 +32904,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="728" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:13">
       <c r="A728">
         <v>2014</v>
       </c>
@@ -32962,7 +32945,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="729" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:13">
       <c r="A729">
         <v>2014</v>
       </c>
@@ -33003,7 +32986,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="730" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:13">
       <c r="A730">
         <v>2014</v>
       </c>
@@ -33044,7 +33027,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="731" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:13">
       <c r="A731">
         <v>2014</v>
       </c>
@@ -33085,7 +33068,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="732" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:13">
       <c r="A732">
         <v>2014</v>
       </c>
@@ -33126,7 +33109,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="733" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:13">
       <c r="A733">
         <v>2014</v>
       </c>
@@ -33167,7 +33150,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="734" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:13">
       <c r="A734">
         <v>2014</v>
       </c>
@@ -33208,7 +33191,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="735" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:13">
       <c r="A735">
         <v>2014</v>
       </c>
@@ -33249,7 +33232,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="736" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:13">
       <c r="A736">
         <v>2014</v>
       </c>
@@ -33290,7 +33273,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="737" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:13">
       <c r="A737">
         <v>2014</v>
       </c>
@@ -33331,7 +33314,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="738" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:13">
       <c r="A738">
         <v>2014</v>
       </c>
@@ -33372,7 +33355,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="739" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:13">
       <c r="A739">
         <v>2014</v>
       </c>
@@ -33413,7 +33396,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="740" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:13">
       <c r="A740">
         <v>2014</v>
       </c>
@@ -33454,7 +33437,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:13">
       <c r="A741">
         <v>2014</v>
       </c>
@@ -33495,7 +33478,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="742" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:13">
       <c r="A742">
         <v>2014</v>
       </c>
@@ -33536,7 +33519,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="743" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:13">
       <c r="A743">
         <v>2014</v>
       </c>
@@ -33577,7 +33560,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="744" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:13">
       <c r="A744">
         <v>2014</v>
       </c>
@@ -33618,7 +33601,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:13">
       <c r="A745">
         <v>2014</v>
       </c>
@@ -33659,7 +33642,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:13">
       <c r="A746">
         <v>2014</v>
       </c>
@@ -33700,7 +33683,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:13">
       <c r="A747">
         <v>2014</v>
       </c>
@@ -33741,7 +33724,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="748" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:13">
       <c r="A748">
         <v>2014</v>
       </c>
@@ -33782,7 +33765,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:13">
       <c r="A749">
         <v>2014</v>
       </c>
@@ -33823,7 +33806,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="750" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:13">
       <c r="A750">
         <v>2014</v>
       </c>
@@ -33864,7 +33847,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="751" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:13">
       <c r="A751">
         <v>2014</v>
       </c>
@@ -33905,7 +33888,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="752" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:13">
       <c r="A752">
         <v>2014</v>
       </c>
@@ -33946,7 +33929,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="753" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:13">
       <c r="A753">
         <v>2014</v>
       </c>
@@ -33987,7 +33970,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="754" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:13">
       <c r="A754">
         <v>2014</v>
       </c>
@@ -34028,7 +34011,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="755" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:13">
       <c r="A755">
         <v>2014</v>
       </c>
@@ -34069,7 +34052,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="756" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:13">
       <c r="A756">
         <v>2014</v>
       </c>
@@ -34110,7 +34093,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="757" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:13">
       <c r="A757">
         <v>2014</v>
       </c>
@@ -34151,7 +34134,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="758" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:13">
       <c r="A758">
         <v>2014</v>
       </c>
@@ -34192,7 +34175,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="759" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:13">
       <c r="A759">
         <v>2014</v>
       </c>
@@ -34233,7 +34216,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="760" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:13">
       <c r="A760">
         <v>2014</v>
       </c>
@@ -34274,7 +34257,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="761" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:13">
       <c r="A761">
         <v>2014</v>
       </c>
@@ -34315,7 +34298,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="762" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:13">
       <c r="A762">
         <v>2014</v>
       </c>
@@ -34356,7 +34339,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="763" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:13">
       <c r="A763">
         <v>2014</v>
       </c>
@@ -34397,7 +34380,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="764" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:13">
       <c r="A764">
         <v>2014</v>
       </c>
@@ -34438,7 +34421,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="765" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:13">
       <c r="A765">
         <v>2014</v>
       </c>
@@ -34479,7 +34462,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="766" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:13">
       <c r="A766">
         <v>2014</v>
       </c>
@@ -34520,7 +34503,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="767" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:13">
       <c r="A767">
         <v>2014</v>
       </c>
@@ -34561,7 +34544,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="768" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:13">
       <c r="A768">
         <v>2014</v>
       </c>
@@ -34602,7 +34585,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="769" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:13">
       <c r="A769">
         <v>2014</v>
       </c>
@@ -34643,7 +34626,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="770" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:13">
       <c r="A770">
         <v>2014</v>
       </c>
@@ -34684,7 +34667,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="771" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:13">
       <c r="A771">
         <v>2014</v>
       </c>
@@ -34725,7 +34708,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="772" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:13">
       <c r="A772">
         <v>2014</v>
       </c>
@@ -34766,7 +34749,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="773" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:13">
       <c r="A773">
         <v>2014</v>
       </c>
@@ -34807,7 +34790,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="774" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:13">
       <c r="A774">
         <v>2014</v>
       </c>
@@ -34848,7 +34831,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="775" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:13">
       <c r="A775">
         <v>2014</v>
       </c>
@@ -34889,7 +34872,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="776" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:13">
       <c r="A776">
         <v>2014</v>
       </c>
@@ -34930,7 +34913,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="777" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:13">
       <c r="A777">
         <v>2014</v>
       </c>
@@ -34971,7 +34954,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="778" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:13">
       <c r="A778">
         <v>2014</v>
       </c>
@@ -35012,7 +34995,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="779" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:13">
       <c r="A779">
         <v>2014</v>
       </c>
@@ -35053,7 +35036,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="780" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:13">
       <c r="A780">
         <v>2014</v>
       </c>
@@ -35094,7 +35077,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="781" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:13">
       <c r="A781">
         <v>2014</v>
       </c>
@@ -35135,7 +35118,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="782" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:13">
       <c r="A782">
         <v>2014</v>
       </c>
@@ -35176,7 +35159,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="783" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:13">
       <c r="A783">
         <v>2014</v>
       </c>
@@ -35217,7 +35200,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="784" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:13">
       <c r="A784">
         <v>2014</v>
       </c>
@@ -35258,7 +35241,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="785" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:13">
       <c r="A785">
         <v>2014</v>
       </c>
@@ -35299,7 +35282,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="786" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:13">
       <c r="A786">
         <v>2014</v>
       </c>
@@ -35340,7 +35323,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="787" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:13">
       <c r="A787">
         <v>2014</v>
       </c>
@@ -35381,7 +35364,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="788" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:13">
       <c r="A788">
         <v>2014</v>
       </c>
@@ -35422,7 +35405,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="789" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:13">
       <c r="A789">
         <v>2014</v>
       </c>
@@ -35463,7 +35446,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="790" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:13">
       <c r="A790">
         <v>2014</v>
       </c>
@@ -35504,7 +35487,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="791" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:13">
       <c r="A791">
         <v>2014</v>
       </c>
@@ -35545,7 +35528,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="792" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:13">
       <c r="A792">
         <v>2014</v>
       </c>
@@ -35586,7 +35569,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="793" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:13">
       <c r="A793">
         <v>2014</v>
       </c>
@@ -35627,7 +35610,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="794" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:13">
       <c r="A794">
         <v>2014</v>
       </c>
@@ -35668,7 +35651,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="795" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:13">
       <c r="A795">
         <v>2014</v>
       </c>
@@ -35709,7 +35692,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="796" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:13">
       <c r="A796">
         <v>2014</v>
       </c>
@@ -35750,7 +35733,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="797" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:13">
       <c r="A797">
         <v>2014</v>
       </c>
@@ -35791,7 +35774,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="798" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:13">
       <c r="A798">
         <v>2014</v>
       </c>
@@ -35832,7 +35815,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="799" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:13">
       <c r="A799">
         <v>2014</v>
       </c>
@@ -35873,7 +35856,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="800" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:13">
       <c r="A800">
         <v>2014</v>
       </c>
@@ -35914,7 +35897,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:13">
       <c r="A801">
         <v>2014</v>
       </c>
@@ -35955,7 +35938,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="802" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:13">
       <c r="A802">
         <v>2014</v>
       </c>
@@ -35996,7 +35979,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="803" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:13">
       <c r="A803">
         <v>2014</v>
       </c>
@@ -36037,7 +36020,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="804" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:13">
       <c r="A804">
         <v>2014</v>
       </c>
@@ -36078,7 +36061,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:13">
       <c r="A805">
         <v>2014</v>
       </c>
@@ -36119,7 +36102,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:13">
       <c r="A806">
         <v>2014</v>
       </c>
@@ -36160,7 +36143,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="807" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:13">
       <c r="A807">
         <v>2014</v>
       </c>
@@ -36201,7 +36184,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="808" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:13">
       <c r="A808">
         <v>2014</v>
       </c>
@@ -36242,7 +36225,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="809" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:13">
       <c r="A809">
         <v>2014</v>
       </c>
@@ -36283,7 +36266,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:13">
       <c r="A810">
         <v>2014</v>
       </c>
@@ -36324,7 +36307,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="811" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:13">
       <c r="A811">
         <v>2014</v>
       </c>
@@ -36365,7 +36348,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:13">
       <c r="A812">
         <v>2014</v>
       </c>
@@ -36406,7 +36389,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="813" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:13">
       <c r="A813">
         <v>2014</v>
       </c>
@@ -36447,7 +36430,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:13">
       <c r="A814">
         <v>2014</v>
       </c>
@@ -36488,7 +36471,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="815" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:13">
       <c r="A815">
         <v>2014</v>
       </c>
@@ -36529,7 +36512,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="816" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:13">
       <c r="A816">
         <v>2014</v>
       </c>
@@ -36570,7 +36553,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="817" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:13">
       <c r="A817">
         <v>2014</v>
       </c>
@@ -36611,7 +36594,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="818" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:13">
       <c r="A818">
         <v>2014</v>
       </c>
@@ -36652,7 +36635,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="819" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:13">
       <c r="A819">
         <v>2014</v>
       </c>
@@ -36693,7 +36676,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="820" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:13">
       <c r="A820">
         <v>2014</v>
       </c>
@@ -36734,7 +36717,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="821" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:13">
       <c r="A821">
         <v>2014</v>
       </c>
@@ -36775,7 +36758,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="822" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:13">
       <c r="A822">
         <v>2014</v>
       </c>
@@ -36816,7 +36799,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="823" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:13">
       <c r="A823">
         <v>2014</v>
       </c>
@@ -36857,7 +36840,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="824" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:13">
       <c r="A824">
         <v>2014</v>
       </c>
@@ -36898,7 +36881,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="825" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:13">
       <c r="A825">
         <v>2014</v>
       </c>
@@ -36939,7 +36922,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="826" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:13">
       <c r="A826">
         <v>2014</v>
       </c>
@@ -36980,7 +36963,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="827" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:13">
       <c r="A827">
         <v>2014</v>
       </c>
@@ -37021,7 +37004,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="828" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:13">
       <c r="A828">
         <v>2014</v>
       </c>
@@ -37062,7 +37045,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="829" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:13">
       <c r="A829">
         <v>2014</v>
       </c>
@@ -37103,7 +37086,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="830" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:13">
       <c r="A830">
         <v>2014</v>
       </c>
@@ -37144,7 +37127,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="831" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:13">
       <c r="A831">
         <v>2014</v>
       </c>
@@ -37185,7 +37168,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="832" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:13">
       <c r="A832">
         <v>2014</v>
       </c>
@@ -37226,7 +37209,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="833" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:13">
       <c r="A833">
         <v>2014</v>
       </c>
@@ -37267,7 +37250,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="834" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:13">
       <c r="A834">
         <v>2014</v>
       </c>
@@ -37308,7 +37291,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="835" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:13">
       <c r="A835">
         <v>2014</v>
       </c>
@@ -37349,7 +37332,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="836" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:13">
       <c r="A836">
         <v>2014</v>
       </c>
@@ -37390,7 +37373,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="837" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:13">
       <c r="A837">
         <v>2014</v>
       </c>
@@ -37431,7 +37414,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="838" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:13">
       <c r="A838">
         <v>2014</v>
       </c>
@@ -37472,7 +37455,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="839" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:13">
       <c r="A839">
         <v>2014</v>
       </c>
@@ -37513,7 +37496,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="840" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:13">
       <c r="A840">
         <v>2014</v>
       </c>
@@ -37554,7 +37537,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="841" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:13">
       <c r="A841">
         <v>2014</v>
       </c>
@@ -37595,7 +37578,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="842" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:13">
       <c r="A842">
         <v>2014</v>
       </c>
@@ -37636,7 +37619,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="843" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:13">
       <c r="A843">
         <v>2014</v>
       </c>
@@ -37677,7 +37660,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="844" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:13">
       <c r="A844">
         <v>2014</v>
       </c>
@@ -37718,7 +37701,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="845" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:13">
       <c r="A845">
         <v>2014</v>
       </c>
@@ -37759,7 +37742,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="846" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:13">
       <c r="A846">
         <v>2014</v>
       </c>
@@ -37800,7 +37783,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="847" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:13">
       <c r="A847">
         <v>2014</v>
       </c>
@@ -37841,7 +37824,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="848" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:13">
       <c r="A848">
         <v>2014</v>
       </c>
@@ -37882,7 +37865,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="849" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:13">
       <c r="A849">
         <v>2014</v>
       </c>
@@ -37923,7 +37906,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="850" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:13">
       <c r="A850">
         <v>2014</v>
       </c>
@@ -37964,7 +37947,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="851" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:13">
       <c r="A851">
         <v>2014</v>
       </c>
@@ -38005,7 +37988,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="852" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:13">
       <c r="A852">
         <v>2014</v>
       </c>
@@ -38046,7 +38029,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="853" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:13">
       <c r="A853">
         <v>2014</v>
       </c>
@@ -38087,7 +38070,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="854" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:13">
       <c r="A854">
         <v>2014</v>
       </c>
@@ -38128,7 +38111,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="855" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:13">
       <c r="A855">
         <v>2014</v>
       </c>
@@ -38169,7 +38152,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="856" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:13">
       <c r="A856">
         <v>2014</v>
       </c>
@@ -38210,7 +38193,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="857" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:13">
       <c r="A857">
         <v>2014</v>
       </c>
@@ -38251,7 +38234,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="858" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:13">
       <c r="A858">
         <v>2014</v>
       </c>
@@ -38292,7 +38275,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="859" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:13">
       <c r="A859">
         <v>2014</v>
       </c>
@@ -38333,7 +38316,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="860" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:13">
       <c r="A860">
         <v>2014</v>
       </c>
@@ -38374,7 +38357,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="861" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:13">
       <c r="A861">
         <v>2014</v>
       </c>
@@ -38415,7 +38398,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="862" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:13">
       <c r="A862">
         <v>2014</v>
       </c>
@@ -38456,7 +38439,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="863" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:13">
       <c r="A863">
         <v>2014</v>
       </c>
@@ -38497,7 +38480,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="864" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:13">
       <c r="A864">
         <v>2014</v>
       </c>
@@ -38538,7 +38521,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="865" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:13">
       <c r="A865">
         <v>2014</v>
       </c>
@@ -38579,7 +38562,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="866" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:13">
       <c r="A866">
         <v>2014</v>
       </c>
@@ -38620,7 +38603,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="867" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:13">
       <c r="A867">
         <v>2014</v>
       </c>
@@ -38661,7 +38644,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="868" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:13">
       <c r="A868">
         <v>2014</v>
       </c>
@@ -38702,7 +38685,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="869" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:13">
       <c r="A869">
         <v>2014</v>
       </c>
@@ -38743,7 +38726,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="870" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:13">
       <c r="A870">
         <v>2014</v>
       </c>
@@ -38784,7 +38767,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="871" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:13">
       <c r="A871">
         <v>2014</v>
       </c>
@@ -38825,7 +38808,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="872" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:13">
       <c r="A872">
         <v>2014</v>
       </c>
@@ -38866,7 +38849,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="873" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:13">
       <c r="A873">
         <v>2014</v>
       </c>
@@ -38907,7 +38890,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="874" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:13">
       <c r="A874">
         <v>2014</v>
       </c>
@@ -38948,7 +38931,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="875" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:13">
       <c r="A875">
         <v>2014</v>
       </c>
@@ -38989,7 +38972,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="876" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:13">
       <c r="A876">
         <v>2014</v>
       </c>
@@ -39030,7 +39013,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="877" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:13">
       <c r="A877">
         <v>2014</v>
       </c>
@@ -39071,7 +39054,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="878" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:13">
       <c r="A878">
         <v>2014</v>
       </c>
@@ -39112,7 +39095,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="879" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:13">
       <c r="A879">
         <v>2014</v>
       </c>
@@ -39153,7 +39136,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="880" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:13">
       <c r="A880">
         <v>2014</v>
       </c>
@@ -39194,7 +39177,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="881" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:13">
       <c r="A881">
         <v>2014</v>
       </c>
@@ -39235,7 +39218,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="882" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:13">
       <c r="A882">
         <v>2014</v>
       </c>
@@ -39276,7 +39259,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="883" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:13">
       <c r="A883">
         <v>2014</v>
       </c>
@@ -39317,7 +39300,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="884" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:13">
       <c r="A884">
         <v>2014</v>
       </c>
@@ -39358,7 +39341,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="885" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:13">
       <c r="A885">
         <v>2014</v>
       </c>
@@ -39399,7 +39382,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="886" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:13">
       <c r="A886">
         <v>2014</v>
       </c>
@@ -39440,7 +39423,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="887" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:13">
       <c r="A887">
         <v>2014</v>
       </c>
@@ -39481,7 +39464,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="888" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:13">
       <c r="A888">
         <v>2014</v>
       </c>
@@ -39522,7 +39505,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="889" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:13">
       <c r="A889">
         <v>2014</v>
       </c>
@@ -39563,7 +39546,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="890" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:13">
       <c r="A890">
         <v>2014</v>
       </c>
@@ -39604,7 +39587,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="891" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:13">
       <c r="A891">
         <v>2014</v>
       </c>
@@ -39645,7 +39628,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="892" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:13">
       <c r="A892">
         <v>2014</v>
       </c>
@@ -39686,7 +39669,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="893" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:13">
       <c r="A893">
         <v>2014</v>
       </c>
@@ -39727,7 +39710,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="894" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:13">
       <c r="A894">
         <v>2014</v>
       </c>
@@ -39768,7 +39751,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="895" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:13">
       <c r="A895">
         <v>2014</v>
       </c>
@@ -39809,7 +39792,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="896" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:13">
       <c r="A896">
         <v>2014</v>
       </c>
@@ -39850,7 +39833,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="897" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:13">
       <c r="A897">
         <v>2014</v>
       </c>
@@ -39891,7 +39874,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="898" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:13">
       <c r="A898">
         <v>2014</v>
       </c>
@@ -39932,7 +39915,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="899" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:13">
       <c r="A899">
         <v>2014</v>
       </c>
@@ -39973,7 +39956,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="900" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:13">
       <c r="A900">
         <v>2014</v>
       </c>
@@ -40014,7 +39997,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="901" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:13">
       <c r="A901">
         <v>2014</v>
       </c>
@@ -40055,7 +40038,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="902" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:13">
       <c r="A902">
         <v>2014</v>
       </c>
@@ -40096,7 +40079,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="903" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:13">
       <c r="A903">
         <v>2014</v>
       </c>
@@ -40137,7 +40120,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="904" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:13">
       <c r="A904">
         <v>2014</v>
       </c>
@@ -40178,7 +40161,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="905" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:13">
       <c r="A905">
         <v>2014</v>
       </c>
@@ -40219,7 +40202,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="906" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:13">
       <c r="A906">
         <v>2014</v>
       </c>
@@ -40260,7 +40243,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="907" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:13">
       <c r="A907">
         <v>2014</v>
       </c>
@@ -40301,7 +40284,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="908" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:13">
       <c r="A908">
         <v>2014</v>
       </c>
@@ -40342,7 +40325,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="909" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:13">
       <c r="A909">
         <v>2014</v>
       </c>
@@ -40383,7 +40366,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="910" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:13">
       <c r="A910">
         <v>2014</v>
       </c>
@@ -40424,7 +40407,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="911" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:13">
       <c r="A911">
         <v>2014</v>
       </c>
@@ -40465,7 +40448,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="912" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:13">
       <c r="A912">
         <v>2014</v>
       </c>
@@ -40506,7 +40489,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="913" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:13">
       <c r="A913">
         <v>2014</v>
       </c>
@@ -40547,7 +40530,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="914" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:13">
       <c r="A914">
         <v>2014</v>
       </c>
@@ -40588,7 +40571,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="915" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:13">
       <c r="A915">
         <v>2014</v>
       </c>
@@ -40629,7 +40612,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="916" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:13">
       <c r="A916">
         <v>2014</v>
       </c>
@@ -40670,7 +40653,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="917" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:13">
       <c r="A917">
         <v>2014</v>
       </c>
@@ -40711,7 +40694,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="918" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:13">
       <c r="A918">
         <v>2014</v>
       </c>
@@ -40752,7 +40735,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="919" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:13">
       <c r="A919">
         <v>2014</v>
       </c>
@@ -40793,7 +40776,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="920" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:13">
       <c r="A920">
         <v>2014</v>
       </c>
@@ -40834,7 +40817,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="921" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:13">
       <c r="A921">
         <v>2014</v>
       </c>
@@ -40875,7 +40858,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="922" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:13">
       <c r="A922">
         <v>2014</v>
       </c>
@@ -40916,7 +40899,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="923" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:13">
       <c r="A923">
         <v>2014</v>
       </c>
@@ -40957,7 +40940,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="924" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:13">
       <c r="A924">
         <v>2014</v>
       </c>
@@ -40998,7 +40981,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="925" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:13">
       <c r="A925">
         <v>2014</v>
       </c>
@@ -41039,7 +41022,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="926" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:13">
       <c r="A926">
         <v>2014</v>
       </c>
@@ -41080,7 +41063,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="927" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:13">
       <c r="A927">
         <v>2014</v>
       </c>
@@ -41121,7 +41104,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="928" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:13">
       <c r="A928">
         <v>2014</v>
       </c>
@@ -41162,7 +41145,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="929" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:13">
       <c r="A929">
         <v>2014</v>
       </c>
@@ -41203,7 +41186,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="930" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:13">
       <c r="A930">
         <v>2014</v>
       </c>
@@ -41244,7 +41227,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="931" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:13">
       <c r="A931">
         <v>2014</v>
       </c>
@@ -41285,7 +41268,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="932" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:13">
       <c r="A932">
         <v>2014</v>
       </c>
@@ -41326,7 +41309,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="933" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:13">
       <c r="A933">
         <v>2014</v>
       </c>
@@ -41367,7 +41350,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="934" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:13">
       <c r="A934">
         <v>2014</v>
       </c>
@@ -41408,7 +41391,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="935" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:13">
       <c r="A935">
         <v>2014</v>
       </c>
@@ -41449,7 +41432,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="936" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:13">
       <c r="A936">
         <v>2014</v>
       </c>
@@ -41490,7 +41473,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="937" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:13">
       <c r="A937">
         <v>2014</v>
       </c>
@@ -41531,7 +41514,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="938" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:13">
       <c r="A938">
         <v>2014</v>
       </c>
@@ -41572,7 +41555,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="939" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:13">
       <c r="A939">
         <v>2014</v>
       </c>
@@ -41613,7 +41596,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="940" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:13">
       <c r="A940">
         <v>2014</v>
       </c>
@@ -41654,7 +41637,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="941" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:13">
       <c r="A941">
         <v>2014</v>
       </c>
@@ -41695,7 +41678,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="942" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:13">
       <c r="A942">
         <v>2014</v>
       </c>
@@ -41736,7 +41719,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="943" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:13">
       <c r="A943">
         <v>2014</v>
       </c>
@@ -41777,7 +41760,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="944" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:13">
       <c r="A944">
         <v>2014</v>
       </c>
@@ -41818,7 +41801,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="945" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:13">
       <c r="A945">
         <v>2014</v>
       </c>
@@ -41859,7 +41842,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="946" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:13">
       <c r="A946">
         <v>2014</v>
       </c>
@@ -41900,7 +41883,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="947" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:13">
       <c r="A947">
         <v>2014</v>
       </c>
@@ -41941,7 +41924,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="948" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:13">
       <c r="A948">
         <v>2014</v>
       </c>
@@ -41982,7 +41965,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="949" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:13">
       <c r="A949">
         <v>2014</v>
       </c>
@@ -42023,7 +42006,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="950" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:13">
       <c r="A950">
         <v>2014</v>
       </c>
@@ -42064,7 +42047,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="951" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:13">
       <c r="A951">
         <v>2014</v>
       </c>
@@ -42105,7 +42088,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="952" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:13">
       <c r="A952">
         <v>2014</v>
       </c>
@@ -42146,7 +42129,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="953" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:13">
       <c r="A953">
         <v>2014</v>
       </c>
@@ -42187,7 +42170,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="954" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:13">
       <c r="A954">
         <v>2014</v>
       </c>
@@ -42228,7 +42211,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="955" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:13">
       <c r="A955">
         <v>2014</v>
       </c>
@@ -42269,7 +42252,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="956" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:13">
       <c r="A956">
         <v>2014</v>
       </c>
@@ -42310,7 +42293,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="957" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:13">
       <c r="A957">
         <v>2014</v>
       </c>
@@ -42351,7 +42334,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="958" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:13">
       <c r="A958">
         <v>2014</v>
       </c>
@@ -42392,7 +42375,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="959" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:13">
       <c r="A959">
         <v>2014</v>
       </c>
@@ -42433,7 +42416,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="960" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:13">
       <c r="A960">
         <v>2014</v>
       </c>
@@ -42474,7 +42457,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="961" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:13">
       <c r="A961">
         <v>2014</v>
       </c>
@@ -42515,7 +42498,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="962" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:13">
       <c r="A962">
         <v>2014</v>
       </c>
@@ -42556,7 +42539,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="963" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:13">
       <c r="A963">
         <v>2014</v>
       </c>
@@ -42597,7 +42580,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="964" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:13">
       <c r="A964">
         <v>2014</v>
       </c>
@@ -42638,7 +42621,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="965" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:13">
       <c r="A965">
         <v>2014</v>
       </c>
@@ -42679,7 +42662,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="966" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:13">
       <c r="A966">
         <v>2014</v>
       </c>
@@ -42720,7 +42703,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="967" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:13">
       <c r="A967">
         <v>2014</v>
       </c>
@@ -42761,7 +42744,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="968" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:13">
       <c r="A968">
         <v>2014</v>
       </c>
@@ -42802,7 +42785,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="969" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:13">
       <c r="A969">
         <v>2014</v>
       </c>
@@ -42843,7 +42826,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="970" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:13">
       <c r="A970">
         <v>2014</v>
       </c>
@@ -42884,7 +42867,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="971" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:13">
       <c r="A971">
         <v>2014</v>
       </c>
@@ -42925,7 +42908,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="972" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:13">
       <c r="A972">
         <v>2014</v>
       </c>
@@ -42966,7 +42949,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="973" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:13">
       <c r="A973">
         <v>2014</v>
       </c>
@@ -43007,7 +42990,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="974" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:13">
       <c r="A974">
         <v>2014</v>
       </c>
@@ -43048,7 +43031,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="975" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:13">
       <c r="A975">
         <v>2014</v>
       </c>
@@ -43089,7 +43072,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="976" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:13">
       <c r="A976">
         <v>2014</v>
       </c>
@@ -43130,7 +43113,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="977" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:13">
       <c r="A977">
         <v>2014</v>
       </c>
@@ -43171,7 +43154,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="978" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:13">
       <c r="A978">
         <v>2014</v>
       </c>
@@ -43212,7 +43195,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="979" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:13">
       <c r="A979">
         <v>2014</v>
       </c>
@@ -43253,7 +43236,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="980" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:13">
       <c r="A980">
         <v>2014</v>
       </c>
@@ -43294,7 +43277,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="981" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:13">
       <c r="A981">
         <v>2014</v>
       </c>
@@ -43335,7 +43318,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="982" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:13">
       <c r="A982">
         <v>2014</v>
       </c>
@@ -43376,7 +43359,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="983" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:13">
       <c r="A983">
         <v>2014</v>
       </c>
@@ -43417,7 +43400,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="984" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:13">
       <c r="A984">
         <v>2014</v>
       </c>
@@ -43458,7 +43441,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="985" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:13">
       <c r="A985">
         <v>2014</v>
       </c>
@@ -43499,7 +43482,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="986" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:13">
       <c r="A986">
         <v>2014</v>
       </c>
@@ -43540,7 +43523,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="987" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:13">
       <c r="A987">
         <v>2014</v>
       </c>
@@ -43581,7 +43564,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="988" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:13">
       <c r="A988">
         <v>2014</v>
       </c>
@@ -43622,7 +43605,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="989" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:13">
       <c r="A989">
         <v>2014</v>
       </c>
@@ -43663,7 +43646,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="990" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:13">
       <c r="A990">
         <v>2014</v>
       </c>
@@ -43704,7 +43687,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="991" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:13">
       <c r="A991">
         <v>2014</v>
       </c>
@@ -43745,7 +43728,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="992" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:13">
       <c r="A992">
         <v>2014</v>
       </c>
@@ -43786,7 +43769,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="993" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:13">
       <c r="A993">
         <v>2014</v>
       </c>
@@ -43827,7 +43810,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="994" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:13">
       <c r="A994">
         <v>2014</v>
       </c>
@@ -43868,7 +43851,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="995" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:13">
       <c r="A995">
         <v>2014</v>
       </c>
@@ -43909,7 +43892,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="996" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:13">
       <c r="A996">
         <v>2014</v>
       </c>
@@ -43950,7 +43933,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="997" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:13">
       <c r="A997">
         <v>2014</v>
       </c>
@@ -43991,7 +43974,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="998" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:13">
       <c r="A998">
         <v>2014</v>
       </c>
@@ -44032,7 +44015,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="999" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:13">
       <c r="A999">
         <v>2014</v>
       </c>
@@ -44073,7 +44056,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="1000" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:13">
       <c r="A1000">
         <v>2014</v>
       </c>
@@ -44114,7 +44097,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="1001" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:13">
       <c r="A1001">
         <v>2014</v>
       </c>
@@ -44155,7 +44138,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="1002" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:13">
       <c r="A1002">
         <v>2014</v>
       </c>
@@ -44196,7 +44179,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="1003" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:13">
       <c r="A1003">
         <v>2014</v>
       </c>
@@ -44237,7 +44220,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="1004" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:13">
       <c r="A1004">
         <v>2014</v>
       </c>
@@ -44278,7 +44261,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="1005" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:13">
       <c r="A1005">
         <v>2014</v>
       </c>
@@ -44319,7 +44302,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="1006" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:13">
       <c r="A1006">
         <v>2014</v>
       </c>
@@ -44360,7 +44343,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="1007" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:13">
       <c r="A1007">
         <v>2014</v>
       </c>
@@ -44401,7 +44384,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="1008" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:13">
       <c r="A1008">
         <v>2014</v>
       </c>
@@ -44442,7 +44425,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="1009" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:13">
       <c r="A1009">
         <v>2014</v>
       </c>
@@ -44483,7 +44466,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="1010" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:13">
       <c r="A1010">
         <v>2014</v>
       </c>
@@ -44524,7 +44507,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="1011" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:13">
       <c r="A1011">
         <v>2014</v>
       </c>
@@ -44565,7 +44548,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1012" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:13">
       <c r="A1012">
         <v>2014</v>
       </c>
@@ -44606,7 +44589,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="1013" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:13">
       <c r="A1013">
         <v>2014</v>
       </c>
@@ -44647,7 +44630,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="1014" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:13">
       <c r="A1014">
         <v>2014</v>
       </c>
@@ -44688,7 +44671,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="1015" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:13">
       <c r="A1015">
         <v>2014</v>
       </c>
@@ -44729,7 +44712,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="1016" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:13">
       <c r="A1016">
         <v>2014</v>
       </c>
@@ -44770,7 +44753,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="1017" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:13">
       <c r="A1017">
         <v>2014</v>
       </c>
@@ -44811,7 +44794,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="1018" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:13">
       <c r="A1018">
         <v>2014</v>
       </c>
@@ -44852,7 +44835,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1019" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:13">
       <c r="A1019">
         <v>2014</v>
       </c>
@@ -44893,7 +44876,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="1020" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:13">
       <c r="A1020">
         <v>2014</v>
       </c>
@@ -44934,7 +44917,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="1021" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:13">
       <c r="A1021">
         <v>2014</v>
       </c>
@@ -44975,7 +44958,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="1022" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:13">
       <c r="A1022">
         <v>2014</v>
       </c>
@@ -45016,7 +44999,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="1023" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:13">
       <c r="A1023">
         <v>2014</v>
       </c>
@@ -45057,7 +45040,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="1024" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:13">
       <c r="A1024">
         <v>2014</v>
       </c>
@@ -45098,7 +45081,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="1025" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:13">
       <c r="A1025">
         <v>2014</v>
       </c>
@@ -45139,7 +45122,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="1026" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:13">
       <c r="A1026">
         <v>2014</v>
       </c>
@@ -45180,7 +45163,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="1027" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:13">
       <c r="A1027">
         <v>2014</v>
       </c>
@@ -45221,7 +45204,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="1028" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:13">
       <c r="A1028">
         <v>2014</v>
       </c>
@@ -45262,7 +45245,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="1029" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:13">
       <c r="A1029">
         <v>2014</v>
       </c>
@@ -45303,7 +45286,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="1030" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:13">
       <c r="A1030">
         <v>2014</v>
       </c>
@@ -45344,7 +45327,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="1031" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:13">
       <c r="A1031">
         <v>2014</v>
       </c>
@@ -45385,7 +45368,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="1032" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1032" spans="1:13">
       <c r="A1032">
         <v>2014</v>
       </c>
@@ -45426,7 +45409,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="1033" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:13">
       <c r="A1033">
         <v>2014</v>
       </c>
@@ -45467,7 +45450,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="1034" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1034" spans="1:13">
       <c r="A1034">
         <v>2014</v>
       </c>
@@ -45508,7 +45491,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="1035" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:13">
       <c r="A1035">
         <v>2014</v>
       </c>
@@ -45549,7 +45532,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="1036" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1036" spans="1:13">
       <c r="A1036">
         <v>2014</v>
       </c>
@@ -45590,7 +45573,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="1037" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:13">
       <c r="A1037">
         <v>2014</v>
       </c>
@@ -45631,7 +45614,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="1038" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1038" spans="1:13">
       <c r="A1038">
         <v>2014</v>
       </c>
@@ -45672,7 +45655,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="1039" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:13">
       <c r="A1039">
         <v>2014</v>
       </c>
@@ -45713,7 +45696,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="1040" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1040" spans="1:13">
       <c r="A1040">
         <v>2014</v>
       </c>
@@ -45754,7 +45737,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="1041" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:13">
       <c r="A1041">
         <v>2014</v>
       </c>
@@ -45795,7 +45778,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="1042" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1042" spans="1:13">
       <c r="A1042">
         <v>2014</v>
       </c>
@@ -45836,7 +45819,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="1043" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:13">
       <c r="A1043">
         <v>2014</v>
       </c>
@@ -45877,7 +45860,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="1044" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1044" spans="1:13">
       <c r="A1044">
         <v>2014</v>
       </c>
@@ -45918,7 +45901,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="1045" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:13">
       <c r="A1045">
         <v>2014</v>
       </c>
@@ -45959,7 +45942,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="1046" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1046" spans="1:13">
       <c r="A1046">
         <v>2014</v>
       </c>
@@ -46000,7 +45983,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="1047" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1047" spans="1:13">
       <c r="A1047">
         <v>2014</v>
       </c>
@@ -46041,7 +46024,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="1048" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1048" spans="1:13">
       <c r="A1048">
         <v>2014</v>
       </c>
@@ -46082,7 +46065,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="1049" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1049" spans="1:13">
       <c r="A1049">
         <v>2014</v>
       </c>
@@ -46123,7 +46106,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="1050" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1050" spans="1:13">
       <c r="A1050">
         <v>2014</v>
       </c>
@@ -46164,7 +46147,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="1051" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1051" spans="1:13">
       <c r="A1051">
         <v>2014</v>
       </c>
@@ -46205,7 +46188,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="1052" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1052" spans="1:13">
       <c r="A1052">
         <v>2014</v>
       </c>
@@ -46246,7 +46229,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="1053" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1053" spans="1:13">
       <c r="A1053">
         <v>2014</v>
       </c>
@@ -46287,7 +46270,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="1054" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1054" spans="1:13">
       <c r="A1054">
         <v>2014</v>
       </c>
@@ -46328,7 +46311,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="1055" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1055" spans="1:13">
       <c r="A1055">
         <v>2014</v>
       </c>
@@ -46369,7 +46352,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="1056" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1056" spans="1:13">
       <c r="A1056">
         <v>2014</v>
       </c>
@@ -46410,7 +46393,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="1057" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1057" spans="1:13">
       <c r="A1057">
         <v>2014</v>
       </c>
@@ -46451,7 +46434,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="1058" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1058" spans="1:13">
       <c r="A1058">
         <v>2014</v>
       </c>
@@ -46492,7 +46475,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="1059" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1059" spans="1:13">
       <c r="A1059">
         <v>2014</v>
       </c>
@@ -46533,7 +46516,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="1060" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1060" spans="1:13">
       <c r="A1060">
         <v>2014</v>
       </c>
@@ -46574,7 +46557,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="1061" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1061" spans="1:13">
       <c r="A1061">
         <v>2014</v>
       </c>
@@ -46615,7 +46598,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="1062" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1062" spans="1:13">
       <c r="A1062">
         <v>2014</v>
       </c>
@@ -46656,7 +46639,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="1063" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1063" spans="1:13">
       <c r="A1063">
         <v>2014</v>
       </c>
@@ -46697,7 +46680,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="1064" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1064" spans="1:13">
       <c r="A1064">
         <v>2014</v>
       </c>
@@ -46738,7 +46721,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="1065" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1065" spans="1:13">
       <c r="A1065">
         <v>2014</v>
       </c>
@@ -46779,7 +46762,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="1066" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1066" spans="1:13">
       <c r="A1066">
         <v>2014</v>
       </c>
@@ -46820,7 +46803,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="1067" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1067" spans="1:13">
       <c r="A1067">
         <v>2014</v>
       </c>
@@ -46861,7 +46844,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="1068" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1068" spans="1:13">
       <c r="A1068">
         <v>2014</v>
       </c>
